--- a/data/locations.xlsx
+++ b/data/locations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="525">
   <si>
     <t>id</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Bridge Of Sacrifice</t>
   </si>
   <si>
-    <t>Limgrave</t>
-  </si>
-  <si>
     <t>A busy bridge swarming with iron-clad foes. Be prepared to engage in an array of melee, ranged and artillery attacks or attempt to push past them</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Smoldering Church</t>
   </si>
   <si>
-    <t>Caelid</t>
-  </si>
-  <si>
     <t>The Last Church in Limgrave before reaching Caelid</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>Ailing Village</t>
   </si>
   <si>
-    <t>Weeping Peninsula</t>
-  </si>
-  <si>
     <t>A small, abandoned village nestled within a forested area north of the Castle Morne Rampart. This village is host to long-dilapidated dwellings, inhabited only by hostile Demi-humans.</t>
   </si>
   <si>
@@ -493,9 +484,6 @@
     <t>Academy Crystal Cave</t>
   </si>
   <si>
-    <t>Liurnia of the Lakes</t>
-  </si>
-  <si>
     <t>The depths of the Raya Lucaria Academy are rich in rose-tinted crystals, imbued with the natural magic of the area</t>
   </si>
   <si>
@@ -1072,9 +1060,6 @@
     <t>Sellia Evergaol</t>
   </si>
   <si>
-    <t>Dragonbarrow</t>
-  </si>
-  <si>
     <t>Outside of Sellia Evergaol</t>
   </si>
   <si>
@@ -1132,9 +1117,6 @@
     <t>Capital Outskirts</t>
   </si>
   <si>
-    <t>Altus Pleateau</t>
-  </si>
-  <si>
     <t>Capital Outskirts is a Location in Elden Ring. The Capital Outskirts sub-region lies in the Eastern area of the Altus Plateau and is the region just outside Leyndell, Royal Capital but still within the capital's outer walls. Beware of Skeletons rising from their graves and rocks flying out of the capital toward the battlegrounds when exploring the area.</t>
   </si>
   <si>
@@ -1454,9 +1436,6 @@
   </si>
   <si>
     <t>Castle Sol</t>
-  </si>
-  <si>
-    <t>Mountaintops of the Giants</t>
   </si>
   <si>
     <t>A castle found in the northeast of the Mountaintops of the Giants. Stronghold of Commander Niall and his spectral knights</t>
@@ -1644,13 +1623,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1888,2466 +1868,2997 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="2" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="2" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="2" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="2" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="2" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="C23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="C24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="C25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="C26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="C27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="C28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="C29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="C30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="C31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="C32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="C33" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="34">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="1" t="s">
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C36" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="1" t="s">
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="1" t="s">
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C38" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="1" t="s">
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="1" t="s">
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C40" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="1" t="s">
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="1" t="s">
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C42" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="1" t="s">
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C43" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="1" t="s">
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" s="1" t="s">
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C45" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="1" t="s">
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C46" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="1" t="s">
+    <row r="47">
+      <c r="A47" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C47" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="1" t="s">
+    <row r="48">
+      <c r="A48" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C48" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="1" t="s">
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C49" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="1" t="s">
+    <row r="50">
+      <c r="A50" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C50" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" s="1" t="s">
+    <row r="51">
+      <c r="A51" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C51" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="1" t="s">
+    <row r="52">
+      <c r="A52" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C52" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="1" t="s">
+    <row r="53">
+      <c r="A53" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C53" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="1" t="s">
+    <row r="54">
+      <c r="A54" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="2" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="1" t="s">
+      <c r="C55" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="2" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="1" t="s">
+      <c r="C56" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="2" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="1" t="s">
+      <c r="C57" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="2" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="1" t="s">
+      <c r="C58" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="2" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="1" t="s">
+      <c r="C59" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="2" t="s">
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="1" t="s">
+      <c r="C60" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="2" t="s">
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="1" t="s">
+      <c r="C61" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E60" s="2" t="s">
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="1" t="s">
+      <c r="C62" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="2" t="s">
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="1" t="s">
+      <c r="C63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="2" t="s">
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="1" t="s">
+      <c r="C64" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E63" s="2" t="s">
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="1" t="s">
+      <c r="C65" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="2" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="1" t="s">
+      <c r="C66" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="2" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="1" t="s">
+      <c r="C67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" s="1" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="C68" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2" t="s">
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="1" t="s">
+      <c r="C69" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E68" s="2" t="s">
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="1" t="s">
+      <c r="C70" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E69" s="2" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="1" t="s">
+      <c r="C71" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E70" s="2" t="s">
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="1" t="s">
+      <c r="C72" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" s="1" t="s">
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="C73" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="1" t="s">
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="s">
+      <c r="C74" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E73" s="2" t="s">
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="1" t="s">
+      <c r="C75" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E74" s="2" t="s">
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="1" t="s">
+      <c r="C76" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E75" s="2" t="s">
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="1" t="s">
+      <c r="C77" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E76" s="2" t="s">
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="1" t="s">
+      <c r="C78" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E77" s="2" t="s">
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="1" t="s">
+      <c r="C79" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E78" s="2" t="s">
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="1" t="s">
+      <c r="C80" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E79" s="2" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="1" t="s">
+      <c r="C81" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E80" s="2" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="1" t="s">
+      <c r="C82" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E81" s="2" t="s">
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="1" t="s">
+      <c r="C83" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" s="1" t="s">
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="C84" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="1" t="s">
+      <c r="E84" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="2" t="s">
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="1" t="s">
+      <c r="C85" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E84" s="2" t="s">
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="1" t="s">
+      <c r="C86" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E85" s="2" t="s">
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="1" t="s">
+      <c r="C87" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E86" s="2" t="s">
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="1" t="s">
+      <c r="C88" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E87" s="2" t="s">
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="1" t="s">
+      <c r="C89" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="E89" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E88" s="2" t="s">
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="1" t="s">
+      <c r="C90" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E90" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E89" s="2" t="s">
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="1" t="s">
+      <c r="C91" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E90" s="2" t="s">
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="1" t="s">
+      <c r="C92" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E91" s="2" t="s">
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="1" t="s">
+      <c r="C93" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="E93" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E92" s="2" t="s">
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="B93" s="1" t="s">
+      <c r="C94" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="E94" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E93" s="2" t="s">
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="1" t="s">
+      <c r="C95" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E95" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E94" s="2" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="1" t="s">
+      <c r="C96" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="E96" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E95" s="2" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="1" t="s">
+      <c r="C97" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E96" s="2" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="1" t="s">
+      <c r="C98" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="E98" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E97" s="2" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="1" t="s">
+      <c r="C99" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="E99" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E98" s="2" t="s">
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="1" t="s">
+      <c r="C100" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="E100" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E99" s="2" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="B100" s="1" t="s">
+      <c r="C101" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="E101" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E100" s="2" t="s">
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="B101" s="1" t="s">
+      <c r="C102" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="E102" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E101" s="2" t="s">
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="1" t="s">
+      <c r="C103" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="E103" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E102" s="2" t="s">
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="B103" s="1" t="s">
+      <c r="C104" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="E104" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E103" s="2" t="s">
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="1" t="s">
+      <c r="C105" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E104" s="2" t="s">
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="1" t="s">
+      <c r="C106" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="E106" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E105" s="2" t="s">
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="1" t="s">
+      <c r="C107" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="E107" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E106" s="2" t="s">
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="B107" s="1" t="s">
+      <c r="C108" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="E108" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E107" s="2" t="s">
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="1" t="s">
+      <c r="C109" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="E109" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E108" s="2" t="s">
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="B109" s="1" t="s">
+      <c r="C110" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="E110" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E109" s="2" t="s">
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="B110" s="1" t="s">
+      <c r="C111" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E111" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E110" s="2" t="s">
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="B111" s="1" t="s">
+      <c r="C112" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="E112" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E111" s="2" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="B112" s="1" t="s">
+      <c r="C113" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="E113" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E112" s="2" t="s">
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="1" t="s">
+      <c r="C114" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="E114" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E113" s="2" t="s">
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="1" t="s">
+      <c r="C115" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="E115" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E114" s="2" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="1" t="s">
+      <c r="C116" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="E116" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E115" s="2" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="B116" s="1" t="s">
+      <c r="C117" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="E117" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E116" s="2" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="B117" s="1" t="s">
+      <c r="C118" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="E118" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E117" s="2" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="B118" s="1" t="s">
+      <c r="C119" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="E119" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="1" t="s">
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="C120" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="B119" s="1" t="s">
+      <c r="E120" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D119" s="1" t="s">
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E119" s="2" t="s">
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="B120" s="1" t="s">
+      <c r="C122" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="E122" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E120" s="2" t="s">
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="B121" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="C123" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="1" t="s">
+      <c r="E123" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D122" s="1" t="s">
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="C124" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="B123" s="1" t="s">
+      <c r="E124" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D123" s="1" t="s">
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="C125" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="1" t="s">
+      <c r="E125" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D124" s="1" t="s">
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="C126" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="B125" s="1" t="s">
+      <c r="E126" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C125" s="1" t="s">
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="C127" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E127" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="126">
-      <c r="B126" s="1" t="s">
+    <row r="128">
+      <c r="A128" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="C128" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E128" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="127">
-      <c r="B127" s="1" t="s">
+    <row r="129">
+      <c r="A129" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="C129" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E129" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="128">
-      <c r="B128" s="1" t="s">
+    <row r="130">
+      <c r="A130" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C130" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E130" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="129">
-      <c r="B129" s="1" t="s">
+    <row r="131">
+      <c r="A131" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C131" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D129" s="1" t="s">
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="C132" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="B130" s="1" t="s">
+      <c r="E132" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D130" s="1" t="s">
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="C133" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="131">
-      <c r="B131" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E131" s="2" t="s">
+    <row r="134">
+      <c r="A134" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="B132" s="1" t="s">
+      <c r="C134" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="E134" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E132" s="2" t="s">
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="B133" s="1" t="s">
+      <c r="C135" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="E135" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="134">
-      <c r="B134" s="1" t="s">
+    <row r="136">
+      <c r="A136" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="C136" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E136" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="135">
-      <c r="B135" s="1" t="s">
+    <row r="137">
+      <c r="A137" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="C137" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="136">
-      <c r="B136" s="1" t="s">
+    <row r="138">
+      <c r="A138" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="C138" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E138" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="137">
-      <c r="B137" s="1" t="s">
+    <row r="139">
+      <c r="A139" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="C139" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E139" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="138">
-      <c r="B138" s="1" t="s">
+    <row r="140">
+      <c r="A140" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="C140" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E138" s="2" t="s">
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="B139" s="1" t="s">
+      <c r="C141" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D139" s="1" t="s">
+      <c r="E141" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E139" s="2" t="s">
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="B140" s="1" t="s">
+      <c r="C142" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="E142" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="141">
-      <c r="B141" s="1" t="s">
+    <row r="143">
+      <c r="A143" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="C143" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E143" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="142">
-      <c r="B142" s="1" t="s">
+    <row r="144">
+      <c r="A144" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="C144" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E144" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="143">
-      <c r="B143" s="1" t="s">
+    <row r="145">
+      <c r="A145" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="C145" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E145" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="144">
-      <c r="B144" s="1" t="s">
+    <row r="146">
+      <c r="A146" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="C146" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E146" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="145">
-      <c r="B145" s="1" t="s">
+    <row r="147">
+      <c r="A147" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="C147" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E147" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="146">
-      <c r="B146" s="1" t="s">
+    <row r="148">
+      <c r="A148" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="C148" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E148" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="147">
-      <c r="B147" s="1" t="s">
+    <row r="149">
+      <c r="A149" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="C149" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E149" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="148">
-      <c r="B148" s="1" t="s">
+    <row r="150">
+      <c r="A150" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="C150" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E150" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="149">
-      <c r="B149" s="1" t="s">
+    <row r="151">
+      <c r="A151" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="C151" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="150">
-      <c r="B150" s="1" t="s">
+    <row r="152">
+      <c r="A152" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="C152" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E152" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="151">
-      <c r="B151" s="1" t="s">
+    <row r="153">
+      <c r="A153" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="C153" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E153" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="152">
-      <c r="B152" s="1" t="s">
+    <row r="154">
+      <c r="A154" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="C154" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E154" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153">
-      <c r="B153" s="1" t="s">
+    <row r="155">
+      <c r="A155" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="C155" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E155" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="154">
-      <c r="B154" s="1" t="s">
+    <row r="156">
+      <c r="A156" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="C156" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E156" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="155">
-      <c r="B155" s="1" t="s">
+    <row r="157">
+      <c r="A157" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="C157" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E157" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="156">
-      <c r="B156" s="1" t="s">
+    <row r="158">
+      <c r="A158" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="C158" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E158" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="157">
-      <c r="B157" s="1" t="s">
+    <row r="159">
+      <c r="A159" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="C159" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E159" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="158">
-      <c r="B158" s="1" t="s">
+    <row r="160">
+      <c r="A160" s="1">
+        <v>159.0</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="C160" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E160" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="1" t="s">
+    <row r="161">
+      <c r="A161" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="C161" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E161" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="160">
-      <c r="B160" s="1" t="s">
+    <row r="162">
+      <c r="A162" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="C162" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E162" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="161">
-      <c r="B161" s="1" t="s">
+    <row r="163">
+      <c r="A163" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="C163" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E163" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="162">
-      <c r="B162" s="1" t="s">
+    <row r="164">
+      <c r="A164" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C164" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E164" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E162" s="2" t="s">
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>164.0</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="B163" s="1" t="s">
+      <c r="C165" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="E165" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="E163" s="2" t="s">
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="B164" s="1" t="s">
+      <c r="C166" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="E166" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E164" s="2" t="s">
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="B165" s="1" t="s">
+      <c r="C167" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="E167" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E165" s="2" t="s">
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="B166" s="1" t="s">
+      <c r="C168" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="E168" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E166" s="2" t="s">
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="B167" s="1" t="s">
+      <c r="C169" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="E169" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E167" s="2" t="s">
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="B168" s="1" t="s">
+      <c r="C170" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="E170" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E168" s="2" t="s">
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="B169" s="1" t="s">
+      <c r="C171" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="E171" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E169" s="2" t="s">
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="B170" s="1" t="s">
+      <c r="C172" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="E172" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E170" s="2" t="s">
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="B171" s="1" t="s">
+      <c r="C173" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="E173" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="E171" s="2" t="s">
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="B172" s="1" t="s">
+      <c r="C174" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="E174" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="E172" s="2" t="s">
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="B173" s="1" t="s">
+      <c r="C175" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="E175" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E173" s="2" t="s">
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="B174" s="1" t="s">
+      <c r="C176" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="E176" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="E174" s="2" t="s">
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>176.0</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="B175" s="1" t="s">
+      <c r="C177" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="E177" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="E175" s="2" t="s">
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>177.0</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="B176" s="1" t="s">
+      <c r="C178" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="E178" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="B177" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="B178" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/data/locations.xlsx
+++ b/data/locations.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>id</t>
   </si>
@@ -34,7 +34,15 @@
     <t>A busy bridge swarming with iron-clad foes. Be prepared to engage in an array of melee, ranged and artillery attacks or attempt to push past them</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c5a795l0i2m72bjeqbh713r3o.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c5a795l0i2m72bjeqbh713r3o.png</t>
+    </r>
   </si>
   <si>
     <t>Church Of Elleh</t>
@@ -43,7 +51,15 @@
     <t>Church of Elleh is a ruined building that hides a Site of Grace. The rooftop has caved in and offers no protection from the elements, and weeds are overtaking the walls, but this doesn't stop merchants from seeking what little shelter is on offer</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69869a3bl0i2m72p0sbjub568ch.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69869a3bl0i2m72p0sbjub568ch.png</t>
+    </r>
   </si>
   <si>
     <t>Deathtouched Catacombs</t>
@@ -52,7 +68,15 @@
     <t>Catacombs filled with the stench of death, Skeletons dwell in the shadows</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69886115l0i2m7307w4njyfhwt5.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69886115l0i2m7307w4njyfhwt5.png</t>
+    </r>
   </si>
   <si>
     <t>Church Of Dragon Communion</t>
@@ -61,7 +85,15 @@
     <t>The dilapidated remains of the Church of Dragon Communion showcase the ruin that came to the land. But could a flame still linger at its altar??</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697ae5eel0i2m74j1houvhsid9m.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697ae5eel0i2m74j1houvhsid9m.png</t>
+    </r>
   </si>
   <si>
     <t>Coastal Cave</t>
@@ -70,7 +102,15 @@
     <t>Coastal Cave is a dark opening on the side of a cliff. Its mossy depths are overrun by hostile humanoid creatures, but those who brave it may find passage to new lands</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697edfb9l0i2m79bx2q2xwbbjtl.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697edfb9l0i2m79bx2q2xwbbjtl.png</t>
+    </r>
   </si>
   <si>
     <t>Dragon-burnt Ruins</t>
@@ -79,7 +119,15 @@
     <t>Dragon-Burnt Ruins are what remains of the housing area among Agheel Lake, long lost to the deadly attacks of the fierce Agheel Dragon</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6986ad2el0i2m7q7y6gl2myxkh8.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6986ad2el0i2m7q7y6gl2myxkh8.png</t>
+    </r>
   </si>
   <si>
     <t>Forlorn Hound Evergaol</t>
@@ -88,7 +136,15 @@
     <t>The southern Evergaol of Limgrave, before the entrance to Weeping Peninsula</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d3927cl0i2m7rak61iym4ek.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d3927cl0i2m7rak61iym4ek.png</t>
+    </r>
   </si>
   <si>
     <t>Fringefolk Hero's Grave</t>
@@ -97,7 +153,15 @@
     <t>Fingefolk Hero's Grave is a dark and secluded location within the Cave of Knowledge. The confused and aimless dwell within</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699ae4a0l0i2m7xeop7sxh8y65e.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699ae4a0l0i2m7xeop7sxh8y65e.png</t>
+    </r>
   </si>
   <si>
     <t>Fort Haight</t>
@@ -106,7 +170,15 @@
     <t>The overrun fort of Kenneth Haith, the alleged next ruler of Limgrave</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6981bb8al0i2m7z49o4mk7lid3.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6981bb8al0i2m7z49o4mk7lid3.png</t>
+    </r>
   </si>
   <si>
     <t>Divine Tower Of Limgrave</t>
@@ -115,7 +187,15 @@
     <t>Closed with a giant set of doors. It looks like you need some pieces to interact with the tower.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699007d5l0i2m80jyrpycbrgzml.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699007d5l0i2m80jyrpycbrgzml.png</t>
+    </r>
   </si>
   <si>
     <t>Gatefront Ruins</t>
@@ -124,7 +204,15 @@
     <t>Gatefront Ruins is what remains of the now destroyed barracks near the fortification. Despite its poor state, it is a heavily guarded location by those loyal to Stormveil</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6961933bl0i2m880lere7qq0dqn.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6961933bl0i2m880lere7qq0dqn.png</t>
+    </r>
   </si>
   <si>
     <t>Limgrave Tunnels</t>
@@ -133,7 +221,15 @@
     <t>Limgrave Tunnels are a mine harvested for Glimstone. Its zealous miners don't dare venture into its hidden chambers, for fear of the hoarder Troll within</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698e05eel0i2m8lxtk1iuo5pp3.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698e05eel0i2m8lxtk1iuo5pp3.png</t>
+    </r>
   </si>
   <si>
     <t>Groveside Cave</t>
@@ -142,7 +238,15 @@
     <t>Groveside Cave is a small refuge for wildlife in Limgrave. Its proximity to water and ease of access make it a sought-after shelter against bad weather, but those who venture in don't seem to return</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69bc29c9l0i2m8mjnl6ac43o3sa.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69bc29c9l0i2m8mjnl6ac43o3sa.png</t>
+    </r>
   </si>
   <si>
     <t>Minor Erdtree (mistwood)</t>
@@ -151,7 +255,15 @@
     <t>Easily distiguished from the rest of the trees in Mistwood Forest.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c40d99l0i2m8n9bf756iumzy9.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c40d99l0i2m8n9bf756iumzy9.png</t>
+    </r>
   </si>
   <si>
     <t>Highroad Cave</t>
@@ -160,7 +272,15 @@
     <t>A cave that houses a tomb, deep within. It is situated at the northmost part of Limgrave. It has been inhabited by a pack of Wolves, Land Octopuses, and Giant Bats</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699b601fl0i2m8statevuowxrrb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699b601fl0i2m8statevuowxrrb.png</t>
+    </r>
   </si>
   <si>
     <t>Mistwood</t>
@@ -169,7 +289,15 @@
     <t>Mistwood is a Location in Elden Ring. The Mistwood region is located in the Eastern part of Limgrave. Tiered terrain, small beaches, and luscious forests occupied by Lesser Runebears are the defining features of this region.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d83e6bl0i2m8v6af0i4h94ltb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d83e6bl0i2m8v6af0i4h94ltb.png</t>
+    </r>
   </si>
   <si>
     <t>Mistwood Ruins</t>
@@ -178,7 +306,15 @@
     <t>Concealed by the thriving growth of vegetation, these ruins are kept out of sight by the veil of nature itself. But there's more to it than what you see</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a3ca6bl0i2m99b111ivu2aamcc.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a3ca6bl0i2m99b111ivu2aamcc.png</t>
+    </r>
   </si>
   <si>
     <t>Murkwater Catacombs</t>
@@ -187,7 +323,15 @@
     <t>An underground cemetery that is located at the north-east side of Agheel Lake in Limgrave. Once a place for peaceful rest for fallen heroes, it is now infested by goblins.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69dedf7al0i2m9b4pz1v8jipl5.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69dedf7al0i2m9b4pz1v8jipl5.png</t>
+    </r>
   </si>
   <si>
     <t>Murkwater Cave</t>
@@ -196,7 +340,15 @@
     <t>A dark cave halfway through the Murkwater River</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69e79661l0i2m9c3uzzwon60ru.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69e79661l0i2m9c3uzzwon60ru.png</t>
+    </r>
   </si>
   <si>
     <t>Siofra River Well</t>
@@ -205,7 +357,15 @@
     <t>A mystical underground region filled with its own set of skies and stars. Beware, it is teeming with creatures big and small alike</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f08b12l0i2m9h4uay98lftdb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f08b12l0i2m9h4uay98lftdb.png</t>
+    </r>
   </si>
   <si>
     <t>Smoldering Church</t>
@@ -214,7 +374,15 @@
     <t>The Last Church in Limgrave before reaching Caelid</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f46160l0i2m9j5wvl4iyb5vv.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f46160l0i2m9j5wvl4iyb5vv.png</t>
+    </r>
   </si>
   <si>
     <t>Stormgate</t>
@@ -223,7 +391,15 @@
     <t>The Stormgate is a heavily guarded area that marks the border within Limgrave and Stormhill. Only the foolhardy would rush such against such odds</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69755f06l0i2m9ygrrte15vxjjn.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69755f06l0i2m9ygrrte15vxjjn.png</t>
+    </r>
   </si>
   <si>
     <t>Stormfoot Catacombs</t>
@@ -232,7 +408,15 @@
     <t>Stormfoot Catacombs were meant as a restful place for the deceased, but its now overrun by Goblins. Its deepest secrets are secured by the Guardian of the Burial Tree</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c93d09l0i2m9yixlupxvwoc7r.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c93d09l0i2m9yixlupxvwoc7r.png</t>
+    </r>
   </si>
   <si>
     <t>Stormhill</t>
@@ -241,7 +425,15 @@
     <t>Stormhill is a Location in Elden Ring. Stormhill is the upper half area of Limgrave, between its central river and Stormveil.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a317f4l0i2m9zw0s2ceqss32f.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a317f4l0i2m9zw0s2ceqss32f.png</t>
+    </r>
   </si>
   <si>
     <t>Stormhill Evergaol</t>
@@ -250,7 +442,15 @@
     <t>The Brave and Foolish alike dare venture into the Stormhill Evergaol and face its relentless knight in battle</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6973afc2l0i2ma51e7fflgwsv2m.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6973afc2l0i2ma51e7fflgwsv2m.png</t>
+    </r>
   </si>
   <si>
     <t>Stormhill Shack</t>
@@ -259,7 +459,15 @@
     <t>The Stormhill Shack is a dilapidated shelter formerly used to house hunters in the area. A Site of Grace offers a needed moment of rest for those traveling nearby</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69ad0772l0i2ma7gusqx8w2s1ao.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69ad0772l0i2ma7gusqx8w2s1ao.png</t>
+    </r>
   </si>
   <si>
     <t>Stranded Graveyard</t>
@@ -268,7 +476,15 @@
     <t>Stranded Graveyard is a dark and secluded location within the Cave of Knowledge. The confused and aimless dwell within</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69e77e65l0i2mam30d45d317ze1a.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69e77e65l0i2mam30d45d317ze1a.png</t>
+    </r>
   </si>
   <si>
     <t>Summonwater Village</t>
@@ -277,7 +493,15 @@
     <t>D, Hunter of The Dead, warns you of this nearby village taken over by death, known as Summonwater Village</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c37b1fl0i2manq5puf8m7lj6.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c37b1fl0i2manq5puf8m7lj6.png</t>
+    </r>
   </si>
   <si>
     <t>Third Church Of Marika</t>
@@ -286,7 +510,15 @@
     <t>The Ruins of an Old Church found in the Mistwood. The most prominent sight here is a statue of a lady with her arms outstretched</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f696f8b63l0i2maq3fi94tgr4s4t.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f696f8b63l0i2maq3fi94tgr4s4t.png</t>
+    </r>
   </si>
   <si>
     <t>Warmaster's Shack</t>
@@ -295,7 +527,15 @@
     <t>Small shack in a remote area near north-central Stormhill.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d5a094l0i2mata8cfyj4ci55t.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d5a094l0i2mata8cfyj4ci55t.png</t>
+    </r>
   </si>
   <si>
     <t>Waypoint Ruins</t>
@@ -304,7 +544,15 @@
     <t>Waypoint Ruins consists of a group of broken buildings and abandoned campsites, now overrun with poisonous flowers and their crazed caretaker</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d6cc12l0i2maurcz3u35zq1e6.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d6cc12l0i2maurcz3u35zq1e6.png</t>
+    </r>
   </si>
   <si>
     <t>Ailing Village</t>
@@ -313,10 +561,26 @@
     <t>A small, abandoned village nestled within a forested area north of the Castle Morne Rampart. This village is host to long-dilapidated dwellings, inhabited only by hostile Demi-humans.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699556dcl0i2mb8hu2t8gym49k9.png</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a08d1al0i2mbb18pbuvaqj0nv.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699556dcl0i2mb8hu2t8gym49k9.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a08d1al0i2mbb18pbuvaqj0nv.png</t>
+    </r>
   </si>
   <si>
     <t>Callu Baptismal Church</t>
@@ -325,7 +589,15 @@
     <t>A dilapidated church, presumably frequented by the former residents of Ailing Village. Now it lies in ruin, its congregation replaced by a family of mutant vermin feasting on the remains of  unfortunate travelers</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6966a9acl0i2mbedz4xx9r4lz4h.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6966a9acl0i2mbedz4xx9r4lz4h.png</t>
+    </r>
   </si>
   <si>
     <t>Church Of Pilgrimage</t>
@@ -334,7 +606,15 @@
     <t>The Church of Pilgrimage is a broken building situated at the top of the cliff in the north of the Weeping Peninsula. Even with the walls and roof destroyed pilgrims still make the journey to visit this church</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698b669el0i2mbhazm5831nokpp.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698b669el0i2mbhazm5831nokpp.png</t>
+    </r>
   </si>
   <si>
     <t>Castle Morne</t>
@@ -343,7 +623,15 @@
     <t>Remants of a chaos swept castle, teeming with iron-clad enemies -now engulfed with fire, piles of remains and ruin.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a8e6e3l0i2mbkue80sw8q9e9m.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a8e6e3l0i2mbkue80sw8q9e9m.png</t>
+    </r>
   </si>
   <si>
     <t>Demi-human Forest Ruins</t>
@@ -352,7 +640,15 @@
     <t>Demi-Humans congregate here to worship their queen. Defeating her will reward players with the Demi-Human Queen's Staff, which is excellent for beginner mages.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698f0b5cl0i2mbvii8p3ju2s8p.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698f0b5cl0i2mbvii8p3ju2s8p.png</t>
+    </r>
   </si>
   <si>
     <t>Earthbore Cave</t>
@@ -361,7 +657,15 @@
     <t>Earthbore Cave is a small dark cave on the side of the Cliffside between Limgrave and Weeping Peninsula. One might be able to hear the squeaks of rats and the snoring of a large beast deep within if you listen closely</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a6e7bal0i2mbxtdxxdlkbn228.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a6e7bal0i2mbxtdxxdlkbn228.png</t>
+    </r>
   </si>
   <si>
     <t>Forest Lookout Tower</t>
@@ -370,7 +674,15 @@
     <t>A run-down tower built on the edge of the cliffs of the Weeping Peninsula, located west of the Bridge of Sacrifice.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69beb214l0i2mc1tu4e1udh50bg.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69beb214l0i2mc1tu4e1udh50bg.png</t>
+    </r>
   </si>
   <si>
     <t>Impaler's Catacombs</t>
@@ -379,7 +691,15 @@
     <t>The Impaler's Catacombs are found in the east side of the Weeping Peninsula. Once used to store the bodies of the dead, it is now crawling with Imps.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69eb484al0i2mc6wcx3of77ezpi.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69eb484al0i2mc6wcx3of77ezpi.png</t>
+    </r>
   </si>
   <si>
     <t>Fourth Church Of Marika</t>
@@ -388,7 +708,15 @@
     <t>The ruins of a lonely church, sitting atop a plateau west of the peninsula. Despite its current state, the altar remains intact and ghostly knights still roam the fields nearby, perhaps restless and duty-bound to safeguarding the area...</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699e2f56l0i2mcc0rz6jdgrnd4b.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699e2f56l0i2mcc0rz6jdgrnd4b.png</t>
+    </r>
   </si>
   <si>
     <t>Minor Erdtree (weeping Peninsula)</t>
@@ -397,7 +725,15 @@
     <t>One of the large Erdtree's found in the Weeping Peninsula. An Erdtree Avatar charges at those who approach</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6967f4a6l0i2mcivef17883vmx4.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6967f4a6l0i2mcivef17883vmx4.png</t>
+    </r>
   </si>
   <si>
     <t>Isolated Merchant's Shack</t>
@@ -406,7 +742,15 @@
     <t>Found at the western edge of the Weeping Peninsula, this lonesome hut is home to but a single person who has long adapted to a life of seclusion</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69e439b6l0i2mcjzcnj6kp3he1.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69e439b6l0i2mcjzcnj6kp3he1.png</t>
+    </r>
   </si>
   <si>
     <t>Oridys's Rise</t>
@@ -415,7 +759,15 @@
     <t>A lone observation tower atop a plateau in the east of the Weeping Peninsula. Long since abandoned, the entrance is barred by a seal, presenting travelers with a small challenge</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69ef93ffl0i2mcqpdy7v0jp2w4t.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69ef93ffl0i2mcqpdy7v0jp2w4t.png</t>
+    </r>
   </si>
   <si>
     <t>Morne Tunnel</t>
@@ -424,7 +776,15 @@
     <t>A dark and hidden tunnel that is inhabited by Misbegottens and Miners.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6981a517l0i2mcvl2m9zjgmsg8q.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6981a517l0i2mcvl2m9zjgmsg8q.png</t>
+    </r>
   </si>
   <si>
     <t>Tombsward Cave</t>
@@ -433,7 +793,15 @@
     <t>Hidden cave in the forest teeming with poison-filled creatures.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d80346l0i2md4i5cedghtnq25.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d80346l0i2md4i5cedghtnq25.png</t>
+    </r>
   </si>
   <si>
     <t>Tombsward Ruins</t>
@@ -442,7 +810,15 @@
     <t>The ruins of a former burial ground. Next to nothing remains here, yet squires still roam the dark tunnels beneath. Perhaps protecting the graves of their former noble masters..</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f4ffe5l0i2md88ra4eyn71p2h.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f4ffe5l0i2md88ra4eyn71p2h.png</t>
+    </r>
   </si>
   <si>
     <t>Tombsward Catacombs</t>
@@ -451,7 +827,15 @@
     <t>The Tombsward Catacombs are hidden inside the mountain near the Minor Erdtree in the Weeping Peninsula. Once filled with the bodies of the dead, armed skeletons now rise to chase away those that wish to explore its depths.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69e49901l0i2mdbbaoshgf9r6xb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69e49901l0i2mdbbaoshgf9r6xb.png</t>
+    </r>
   </si>
   <si>
     <t>Tower Of Return</t>
@@ -460,7 +844,15 @@
     <t>A dilapidated tower guarded by foot soldiers and mounted cavalry. Makeshift wooden platforms and ladders line the inside of the tower, allowing it to retain some function as a lookout point and a mount for ballistae</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f66bd4l0i2mddees047dl1w3.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f66bd4l0i2mddees047dl1w3.png</t>
+    </r>
   </si>
   <si>
     <t>Weeping Evergaol</t>
@@ -469,7 +861,15 @@
     <t>An evergaol located on the western landmass of the Weeping Peninsula. A formidable opponent is imprisoned within</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698df3ebl0i2mdikdnz45fhyrc7.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698df3ebl0i2mdikdnz45fhyrc7.png</t>
+    </r>
   </si>
   <si>
     <t>Witchbane Ruins</t>
@@ -478,7 +878,15 @@
     <t>A set of ruins found in western Weeping Peninsula. Overgrown with thick shrubs and poisonous flowers, this decrepit landmark invites only misery and dread.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69aac157l0i2mdq7xv2njkwl739.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69aac157l0i2mdq7xv2njkwl739.png</t>
+    </r>
   </si>
   <si>
     <t>Academy Crystal Cave</t>
@@ -487,7 +895,15 @@
     <t>The depths of the Raya Lucaria Academy are rich in rose-tinted crystals, imbued with the natural magic of the area</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69eea151l0i2mdvyoq9hes3awih.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69eea151l0i2mdvyoq9hes3awih.png</t>
+    </r>
   </si>
   <si>
     <t>Academy Gate Town</t>
@@ -496,7 +912,15 @@
     <t>The sunken remains of the academy town</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69ca396cl0i2mdysgmasljm2zkm.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69ca396cl0i2mdysgmasljm2zkm.png</t>
+    </r>
   </si>
   <si>
     <t>Ainsel River Well</t>
@@ -505,7 +929,15 @@
     <t>A small structure housing a lift that takes you down to the Ainsel River.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69810cebl0i2mdzlqf85vs5362m.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69810cebl0i2mdzlqf85vs5362m.png</t>
+    </r>
   </si>
   <si>
     <t>Artist's Shack</t>
@@ -514,7 +946,15 @@
     <t>A small cabin at North Liurnia of The Lakes. Its strongly perceived tranquility seems overshadowed by oblivion.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f1bf17l0i2me5lh0rinbjahod.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f1bf17l0i2me5lh0rinbjahod.png</t>
+    </r>
   </si>
   <si>
     <t>Bellum Church</t>
@@ -523,7 +963,15 @@
     <t>Located past the ruins and the forested area guarded by Mounted Knights.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f3a31bl0i2meai1xfwcvclxod.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f3a31bl0i2meai1xfwcvclxod.png</t>
+    </r>
   </si>
   <si>
     <t>Bellum Highway</t>
@@ -532,7 +980,15 @@
     <t>Outside the East Raya Lucaria Gate</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c7e27al0i2meh9ln3g7iucc9m.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c7e27al0i2meh9ln3g7iucc9m.png</t>
+    </r>
   </si>
   <si>
     <t>Black Knife Catacombs</t>
@@ -541,7 +997,15 @@
     <t>Black Knife Catacombs homes many skeletons and crabs within its depths, find and defeat the Black Knife Assassin within to obtain their dagger.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699441c2l0i2men3bc9smd0h3jp.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699441c2l0i2men3bc9smd0h3jp.png</t>
+    </r>
   </si>
   <si>
     <t>Caria Manor</t>
@@ -550,7 +1014,15 @@
     <t>A large estate situated far to the north of Liurnia.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f696fcc61l0i2mesvptc01pvt2k.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f696fcc61l0i2mesvptc01pvt2k.png</t>
+    </r>
   </si>
   <si>
     <t>Boilprawn Shack</t>
@@ -559,7 +1031,15 @@
     <t>Small cozy shack where Blackguard Big Boggart resides.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69671b3cl0i2meu31aoc55gpu6w.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69671b3cl0i2meu31aoc55gpu6w.png</t>
+    </r>
   </si>
   <si>
     <t>Carian Study Hall</t>
@@ -568,7 +1048,15 @@
     <t>A large library-like location full of spectres</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69ebf5c7l0i2mf0jf9uvcbi972.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69ebf5c7l0i2mf0jf9uvcbi972.png</t>
+    </r>
   </si>
   <si>
     <t>Chapel Of Anticipation</t>
@@ -577,7 +1065,15 @@
     <t>A small starting building with trail leading to an area occupied by a gnarly Grafted Scion</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69b84b61l0i2mfc7u9mll6xzntq.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69b84b61l0i2mfc7u9mll6xzntq.png</t>
+    </r>
   </si>
   <si>
     <t>Chelona's Rise</t>
@@ -586,7 +1082,15 @@
     <t>A tower overlooking the southern-most tip of Liurnia of the lakes</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698ad77al0i2mfezbdn6jgn0o9.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698ad77al0i2mfezbdn6jgn0o9.png</t>
+    </r>
   </si>
   <si>
     <t>Church Of Inhibition</t>
@@ -595,7 +1099,15 @@
     <t>The remnants of an old church in the north of Liurnia, just before the Altus Plateau.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698e5adfl0i2mffrxjg7ruc39w.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698e5adfl0i2mffrxjg7ruc39w.png</t>
+    </r>
   </si>
   <si>
     <t>Cathedral Of Manus Celes</t>
@@ -604,13 +1116,29 @@
     <t>A large church atop the southern plateau of Liurnia.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69cce4d4l0i2mfhyp49jkapcfro.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69cce4d4l0i2mfhyp49jkapcfro.png</t>
+    </r>
   </si>
   <si>
     <t>Church Of Irith</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69eb0b5al0i2mfvs8tpdxql60r.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69eb0b5al0i2mfvs8tpdxql60r.png</t>
+    </r>
   </si>
   <si>
     <t>Church Of Vows</t>
@@ -619,7 +1147,15 @@
     <t>It is here, at the Church of Vows, that the great houses of the Erdtree and the Moon were joined by the matrimonial bond between red-haired Radagon and Rennala of the Full Moon. That is why it holds in view the monuments of both houses, the Erdtree of the Capital and the Academy of Raya Lucaria.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c9c269l0i2mfxzgqbh7ffwoxe.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c9c269l0i2mfxzgqbh7ffwoxe.png</t>
+    </r>
   </si>
   <si>
     <t>Converted Fringe Tower</t>
@@ -628,7 +1164,15 @@
     <t>A tower found on the fringe in the northeastern tip of Liurnia.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69da1bd4l0i2mg2rzb8btkku3w.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69da1bd4l0i2mg2rzb8btkku3w.png</t>
+    </r>
   </si>
   <si>
     <t>Converted Tower</t>
@@ -637,7 +1181,15 @@
     <t>An abandoned tower</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d1362al0i2mg4cjo2nkqwii0c.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d1362al0i2mg4cjo2nkqwii0c.png</t>
+    </r>
   </si>
   <si>
     <t>Cuckoo's Evergaol</t>
@@ -646,7 +1198,15 @@
     <t>Evergaol located on the western landmass of Liurnia. A powerful force stirs within.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698f564bl0i2mgkgv52gb259rpo.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698f564bl0i2mgkgv52gb259rpo.png</t>
+    </r>
   </si>
   <si>
     <t>Deep Ainsel Well</t>
@@ -661,7 +1221,15 @@
     <t>Divine Tower of Liurnia is a Location in Elden Ring. The Divine Tower of Liurnia is found in Liurnia of the Lakes and is reached by taking the lift down at the secret area of Carian Study Hall.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a9bb63l0i2mgrk6uq0c1hc2ce.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a9bb63l0i2mgrk6uq0c1hc2ce.png</t>
+    </r>
   </si>
   <si>
     <t>Frenzied Flame Village</t>
@@ -670,7 +1238,15 @@
     <t>A village in Liurnia gripped in the madness of Three Fingers. Its denizens know nothing but the fiery frenzy burning within them</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69b8ac92l0i2mgtov87be1r2nqe.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69b8ac92l0i2mgtov87be1r2nqe.png</t>
+    </r>
   </si>
   <si>
     <t>Grand Lift Of Dectus</t>
@@ -679,7 +1255,15 @@
     <t>A massive lift platform found between Liurnia and the Altus Plateau. The mechanism that operates the lift is barred by four Guardian Statues, requiring the brandishing of a special artifact for them to release their hold</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699dd1c8l0i2mgue4joyaqx4gkf.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699dd1c8l0i2mgue4joyaqx4gkf.png</t>
+    </r>
   </si>
   <si>
     <t>Highway Lookout Tower</t>
@@ -688,7 +1272,15 @@
     <t>A lone tower overlooking the Liurnia main road on the eastern landmass</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6999ba4dl0i2mh3xyke5xw6a3.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6999ba4dl0i2mh3xyke5xw6a3.png</t>
+    </r>
   </si>
   <si>
     <t>Jarburg</t>
@@ -697,7 +1289,15 @@
     <t>Jarburg was a peaceful village, but the effects of the Shattering affected even the otherwise amicable Living Jar</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c4fae0l0i2mh89ctxbtq3mamf.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c4fae0l0i2mh89ctxbtq3mamf.png</t>
+    </r>
   </si>
   <si>
     <t>Kingsrealm Ruins</t>
@@ -706,7 +1306,15 @@
     <t>A ruined area, only seemingly bare.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f696bd5cdl0i2mhe4ogfvk5y4fnk.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f696bd5cdl0i2mhe4ogfvk5y4fnk.png</t>
+    </r>
   </si>
   <si>
     <t>Lakeside Crystal Cave</t>
@@ -715,7 +1323,15 @@
     <t>Hidden on the southwestern cliffs of Liurnia of the Lakes, a winding cave carved by large crystals</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a91598l0i2mhgmal00xkh3qlq.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a91598l0i2mhgmal00xkh3qlq.png</t>
+    </r>
   </si>
   <si>
     <t>Laskyar Ruins</t>
@@ -724,7 +1340,15 @@
     <t>Ruins of a sunken structure beset by fog, found amidst the marshes of south Liurnia.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6998e8c0l0i2mhji8anu11st2mt.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6998e8c0l0i2mhji8anu11st2mt.png</t>
+    </r>
   </si>
   <si>
     <t>Lunar Estate Ruins</t>
@@ -733,7 +1357,15 @@
     <t>The ruins of a large estate found atop the southwestern plateau of Liurnia.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69755ab0l0i2mhph4nhezda1u7a.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69755ab0l0i2mhph4nhezda1u7a.png</t>
+    </r>
   </si>
   <si>
     <t>Malefactor's Evergaol</t>
@@ -742,13 +1374,29 @@
     <t>An evergaol overlooking the vast lakes. An ever burning flame resides within</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69dacb4bl0i2mhubpixrap5onq.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69dacb4bl0i2mhubpixrap5onq.png</t>
+    </r>
   </si>
   <si>
     <t>Minor Erdtree (liurnia Southwest)</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f56f55l0i2mhypmucze7mfrzc.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f56f55l0i2mhypmucze7mfrzc.png</t>
+    </r>
   </si>
   <si>
     <t>Moonfolk Ruins</t>
@@ -757,7 +1405,15 @@
     <t>Ruins found in the southwest of the Liurnia of the Lakes region</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699944del0i2mi3slb26ih47ryg.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699944del0i2mi3slb26ih47ryg.png</t>
+    </r>
   </si>
   <si>
     <t>Purified Ruins</t>
@@ -766,7 +1422,15 @@
     <t>The holy remains now lie in ruin</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d966bel0i2mi4tvwhnn8vetm.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d966bel0i2mi4tvwhnn8vetm.png</t>
+    </r>
   </si>
   <si>
     <t>Ranni's Rise</t>
@@ -775,7 +1439,15 @@
     <t>A tower beset by large chunks of glintstone emerging from the ground and penetrating its interiors. Home to a mysterious figure observing The Lands Between</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698099f7l0i2miaetoao4rp6xtb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698099f7l0i2miaetoao4rp6xtb.png</t>
+    </r>
   </si>
   <si>
     <t>Raya Lucaria Crystal Tunnel</t>
@@ -784,7 +1456,15 @@
     <t>One of the vast networks of tunnels used prominently for the academy's crystal mining operation.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c399c9l0i2mil0mh3d0ps7e7.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c399c9l0i2mil0mh3d0ps7e7.png</t>
+    </r>
   </si>
   <si>
     <t>Renna's Rise</t>
@@ -793,7 +1473,15 @@
     <t>A Tower of the Three Sisters, belonging to Renna. It houses Ranni's Snow Witch Armor Set</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698a28ecl0i2mipyyaypw22zid.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698a28ecl0i2mipyyaypw22zid.png</t>
+    </r>
   </si>
   <si>
     <t>Revenger's Shack</t>
@@ -802,7 +1490,15 @@
     <t>An isolated shack north of the Minor Erdtree. Bodies litter the ground inside the shack, possibly belonging to those one has taken revenge upon</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69bb1acal0i2mitcppzloop1zos.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69bb1acal0i2mitcppzloop1zos.png</t>
+    </r>
   </si>
   <si>
     <t>Ringleader's Evergaol</t>
@@ -811,7 +1507,15 @@
     <t>An evergaol where a nortorious assassin is incarcerated</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6960e4ffl0i2mixrjbqp5ikjrdf.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6960e4ffl0i2mixrjbqp5ikjrdf.png</t>
+    </r>
   </si>
   <si>
     <t>Road's End Catacombs</t>
@@ -820,7 +1524,15 @@
     <t>Catacombs at the end of the world..</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69cc10e6l0i2mj6tb3yh7hepkwb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69cc10e6l0i2mj6tb3yh7hepkwb.png</t>
+    </r>
   </si>
   <si>
     <t>Rose Church</t>
@@ -829,7 +1541,15 @@
     <t>The ruins of a former church aptly named Rose Church, for its walls are now festering with scarlet rot and overgrown with bloodroses.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69993058l0i2mjc4gismv720o76.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69993058l0i2mjc4gismv720o76.png</t>
+    </r>
   </si>
   <si>
     <t>Royal Grave Evergaol</t>
@@ -838,7 +1558,15 @@
     <t>An evergaol constructed for the Carian Royal family in the plains east of the royal estate</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69bb8933l0i2mjfr92f3f404f5.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69bb8933l0i2mjfr92f3f404f5.png</t>
+    </r>
   </si>
   <si>
     <t>Ruin-strewn Precipice</t>
@@ -847,7 +1575,15 @@
     <t>A steep precipice with abundant caves in the insides all the way through</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699ac779l0i2mjk3m8nufj4z7fe.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699ac779l0i2mjk3m8nufj4z7fe.png</t>
+    </r>
   </si>
   <si>
     <t>Seluvis's Rise</t>
@@ -856,7 +1592,15 @@
     <t>A tower bequeathed unto Preceptor Seluvis. Serves as his personal study as he delves into the sorcerous arts.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6973267cl0i2mjmwm9vdpxj72u.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6973267cl0i2mjmwm9vdpxj72u.png</t>
+    </r>
   </si>
   <si>
     <t>Slumbering Wolf's Shack</t>
@@ -865,7 +1609,15 @@
     <t>A small shack nestled at the side of a cliff, only accessible through a long winding cave system.   A woman and her wolf companion rest here.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c6be62l0i2mjs3roacssjuxza.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c6be62l0i2mjs3roacssjuxza.png</t>
+    </r>
   </si>
   <si>
     <t>Stillwater Cave</t>
@@ -874,7 +1626,15 @@
     <t>A dark and murky cave beset by a poisonous miasma. Home to servants of rot, relishing in the presence of the giant poisonblooms endemic to the cave</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69bc3adbl0i2mjzcn0qc9u6t9bk.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69bc3adbl0i2mjzcn0qc9u6t9bk.png</t>
+    </r>
   </si>
   <si>
     <t>Temple Quarter</t>
@@ -883,7 +1643,15 @@
     <t>Ruined by the breaking, the Temple Quarter is now overrun with dangerous creatures, ready to attack any who come near</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69e1147dl0i2mk2ygww3qoin7ba.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69e1147dl0i2mk2ygww3qoin7ba.png</t>
+    </r>
   </si>
   <si>
     <t>Testu's Rise</t>
@@ -892,7 +1660,15 @@
     <t>An observation tower found in the middle of a lone isle in Liurnia. The entrance is sealed by impish magic and presents a challenge to would-be visitors</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d3b50fl0i2mk6p38tb210zrrj.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d3b50fl0i2mk6p38tb210zrrj.png</t>
+    </r>
   </si>
   <si>
     <t>The Four Belfries</t>
@@ -901,7 +1677,15 @@
     <t>As its name suggests, The Four Belfries is a hill with four large bell towers overlooking Liurnia from the west. Each belfry hosts a waygate that transports travelers to various locations</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d66ba9l0i2mkaapoatsule3ab.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d66ba9l0i2mkaapoatsule3ab.png</t>
+    </r>
   </si>
   <si>
     <t>Village Of The Albinaurics</t>
@@ -910,7 +1694,15 @@
     <t>The cursemongers have destroyed the Village of the Albinaurics, but perhaps their hope to reach the promised city is not yet lost</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f696874a9l0i2mkds3uzk8ol689w.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f696874a9l0i2mkds3uzk8ol689w.png</t>
+    </r>
   </si>
   <si>
     <t>Abandoned Cave</t>
@@ -919,7 +1711,15 @@
     <t>Long time abandoned cave.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a76b08l0i2mkixrtbvunct38.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a76b08l0i2mkixrtbvunct38.png</t>
+    </r>
   </si>
   <si>
     <t>Caelem Ruins</t>
@@ -928,7 +1728,15 @@
     <t>A set of perpetually burning ruins in western Caelid. The Caelid Highway cuts through these ruins which are heavily guarded by mobile flamethrowers and swarming with burning reanimated corpses</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69935509l0i2mkr8vjb9f4f94v.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69935509l0i2mkr8vjb9f4f94v.png</t>
+    </r>
   </si>
   <si>
     <t>Caelid Catacombs</t>
@@ -937,7 +1745,15 @@
     <t>A labyrinth of Scarlet Rot-soaked floors and tunnels.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f696635c6l0i2mkuc7ifimqdqkmw.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f696635c6l0i2mkuc7ifimqdqkmw.png</t>
+    </r>
   </si>
   <si>
     <t>Caelid Waypoint Ruins</t>
@@ -946,7 +1762,15 @@
     <t>A set of ruins found in southwest Caelid, along the highway. Long abandoned, the ruins have become home to all manner of creatures that revel in the decay and putrefaction brought on by the scarlet rot</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69759442l0i2mkz2ozy780lp1ia.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69759442l0i2mkz2ozy780lp1ia.png</t>
+    </r>
   </si>
   <si>
     <t>Aeonia Swamp</t>
@@ -955,7 +1779,15 @@
     <t>The Swamp of Aeonia is nestled in the center of the Caelid region. What were once flourishing plains filled with rich flora and fauna are now reduced to a cesspool of death and decay. A high concentration of the dreaded scarlet rot has mutated the very earth itself, twisting the creatures and plant life that once called this home.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699bc4c7l0i2ml02kvmdi9fv2a.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699bc4c7l0i2ml02kvmdi9fv2a.png</t>
+    </r>
   </si>
   <si>
     <t>Cathedral Of Dragon Communion (caelid)</t>
@@ -964,7 +1796,15 @@
     <t>The Cathedral of Dragon Communion has long been destroyed, but those who seek to commune with draconic power may yet access its power</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a15b4al0i2ml8g7pe7tcjmzqk.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a15b4al0i2ml8g7pe7tcjmzqk.png</t>
+    </r>
   </si>
   <si>
     <t>Church Of The Plague</t>
@@ -973,7 +1813,15 @@
     <t>A dilapidated church found in the cliffs east of Sellia, Town of Sorcery</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69922e0fl0i2mlawpo9eps0kqe.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69922e0fl0i2mlawpo9eps0kqe.png</t>
+    </r>
   </si>
   <si>
     <t>Fort Gael</t>
@@ -982,7 +1830,15 @@
     <t>A ruined fort in a ruined land,</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69dbb012l0i2mlliso8pvrpw4an.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69dbb012l0i2mlliso8pvrpw4an.png</t>
+    </r>
   </si>
   <si>
     <t>Gael Tunnel</t>
@@ -991,7 +1847,15 @@
     <t>A set of tunnels found on the western edge of Caelid, along the border to Limgrave</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69b4d520l0i2mln0ngtae6zndll.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69b4d520l0i2mln0ngtae6zndll.png</t>
+    </r>
   </si>
   <si>
     <t>Forsaken Ruins</t>
@@ -1000,7 +1864,15 @@
     <t>The Forsaken Ruins consists of a group of broken buildings and abandoned campsites. It is located in Caelid and is gaurded by a Giant Crow</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a84cf2l0i2mlr7qukgvew5dt.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a84cf2l0i2mlr7qukgvew5dt.png</t>
+    </r>
   </si>
   <si>
     <t>Gaol Cave</t>
@@ -1009,7 +1881,15 @@
     <t>Found at the west of Caelid.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d11b53l0i2mlurz5othyaw2yn.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d11b53l0i2mlurz5othyaw2yn.png</t>
+    </r>
   </si>
   <si>
     <t>Gowry's Shack</t>
@@ -1018,7 +1898,15 @@
     <t>A lone shack found below the eastern hills near Sellia, Town of Sorcery.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6981d80cl0i2mlvehfutqz69f7c.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6981d80cl0i2mlvehfutqz69f7c.png</t>
+    </r>
   </si>
   <si>
     <t>Minor Erdtree Catacombs</t>
@@ -1027,7 +1915,15 @@
     <t>Minor Erdtree Catacombs is a Location in Elden Ring. The Minor Erdtree Catacombs is found in Caelid, beneath the Minor Erdtree. Players can reach this location by traveling east from where the region meets with Limgrave and then looking for the entrance behind the tree, in the north.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d11915l0i2mm7w192hcoirxvu.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d11915l0i2mm7w192hcoirxvu.png</t>
+    </r>
   </si>
   <si>
     <t>Redmane Castle</t>
@@ -1036,7 +1932,15 @@
     <t>A small castle that is heavily guarded at the castle's outskirts by Radahn Knights and Soldiers. The Redmane Castle serves as the gathering point for warriors alike who are wanting to participate in the Radahn Festival</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c84fbal0i2mmf3h8h45isx18a.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c84fbal0i2mmf3h8h45isx18a.png</t>
+    </r>
   </si>
   <si>
     <t>Minor Erdtree (caelid)</t>
@@ -1045,7 +1949,15 @@
     <t>The Minor Erdtree of Caelid, found in the northwest near the border to Limgrave.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69654a3dl0i2mmit9ec0mmxu749.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69654a3dl0i2mmit9ec0mmxu749.png</t>
+    </r>
   </si>
   <si>
     <t>Sellia Crystal Tunnel</t>
@@ -1054,7 +1966,15 @@
     <t>The crystal mining operation of Sellia is overseen by greedy and aggressive insectoids</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69e4cd2al0i2mmjf7o5gwy7nhbg.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69e4cd2al0i2mmjf7o5gwy7nhbg.png</t>
+    </r>
   </si>
   <si>
     <t>Sellia Evergaol</t>
@@ -1063,7 +1983,15 @@
     <t>Outside of Sellia Evergaol</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69866cf7l0i2mmw8ziuo0llo4l8.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69866cf7l0i2mmw8ziuo0llo4l8.png</t>
+    </r>
   </si>
   <si>
     <t>Sellia Gateway</t>
@@ -1072,7 +2000,15 @@
     <t>The gateway leading to Sellia, Town of Socrcery</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f5508fl0i2mmwfbgtc9rn3v1n.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f5508fl0i2mmwfbgtc9rn3v1n.png</t>
+    </r>
   </si>
   <si>
     <t>Sellia, Town Of Sorcery</t>
@@ -1081,10 +2017,26 @@
     <t>A once-great town renowned for its study of the sorcerous arts. Now lying in ruin, the ghosts of its former scholars still roam the streets.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f1cb3fl0i2mn4dwszk6ivxz2.png</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d93dd7l0i2mn5cuabfm8gwktg.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f1cb3fl0i2mn4dwszk6ivxz2.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d93dd7l0i2mn5cuabfm8gwktg.png</t>
+    </r>
   </si>
   <si>
     <t>Shack Of The Rotting</t>
@@ -1093,7 +2045,15 @@
     <t>An old worn-down shack overlooking a long stretch of cliffs in western Caelid.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69ae9c57l0i2mn6m3td3uzlk5s5.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69ae9c57l0i2mn6m3td3uzlk5s5.png</t>
+    </r>
   </si>
   <si>
     <t>Street Of Sages Ruins</t>
@@ -1102,7 +2062,15 @@
     <t>The sages of Caelid are no more, and their former district is now the dwelling of perfumers and their poisonous flowers</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697a0d02l0i2mnesx1dup5pg1u9.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697a0d02l0i2mnesx1dup5pg1u9.png</t>
+    </r>
   </si>
   <si>
     <t>War-dead Catacombs</t>
@@ -1111,7 +2079,15 @@
     <t>Catacombs for those who have died a glorious battle death</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699e1038l0i2mnmh37d1nfbes3b.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699e1038l0i2mnmh37d1nfbes3b.png</t>
+    </r>
   </si>
   <si>
     <t>Capital Outskirts</t>
@@ -1120,7 +2096,15 @@
     <t>Capital Outskirts is a Location in Elden Ring. The Capital Outskirts sub-region lies in the Eastern area of the Altus Plateau and is the region just outside Leyndell, Royal Capital but still within the capital's outer walls. Beware of Skeletons rising from their graves and rocks flying out of the capital toward the battlegrounds when exploring the area.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69625085l0i2mnshaufkjhe4gok.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69625085l0i2mnshaufkjhe4gok.png</t>
+    </r>
   </si>
   <si>
     <t>Altus Tunnel</t>
@@ -1129,7 +2113,15 @@
     <t>The Altus tunnels were once used to supply the lands with quality crystals</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6993b974l0i2mnzpvp1ultcqrm.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6993b974l0i2mnzpvp1ultcqrm.png</t>
+    </r>
   </si>
   <si>
     <t>Dominula, Windmill Village</t>
@@ -1138,7 +2130,15 @@
     <t>Dominula, Windmill Village is a Location in Elden Ring. The Dominula, Windmill Village  is found in Altus Plateau. East of the "Road of iniquity Side Path"sight of grace. Follow the main path southeast then bend east.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697ef5f2l0i2mo0qi9n0ri0imyd.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697ef5f2l0i2mo0qi9n0ri0imyd.png</t>
+    </r>
   </si>
   <si>
     <t>East Windmill Pasture</t>
@@ -1147,7 +2147,15 @@
     <t>East Pasture Outskirsts of Windmill Village. True to its name, it can be identified by the still-working windmill placed in the center of the pasture.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69bbcfcal0i2mo7s8f4xhwr53ms.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69bbcfcal0i2mo7s8f4xhwr53ms.png</t>
+    </r>
   </si>
   <si>
     <t>Golden Lineage Evergaol</t>
@@ -1156,7 +2164,15 @@
     <t>An evergaol located on within the Altus Plateau.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698e4311l0i2mo8fibxu670d50f.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698e4311l0i2mo8fibxu670d50f.png</t>
+    </r>
   </si>
   <si>
     <t>Hermit Merchant's Shack</t>
@@ -1165,10 +2181,26 @@
     <t>Nestled on a cliff within the confines of the Royal Capital, this shack is home to a humble merchant, who has chosen a life of seclusion</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f696d8354l0i2mogg6n9e7genjdc.png</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697f9642l0i2molzde5v6dex4io.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f696d8354l0i2mogg6n9e7genjdc.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697f9642l0i2molzde5v6dex4io.png</t>
+    </r>
   </si>
   <si>
     <t>Leyndell, Royal Capital</t>
@@ -1177,7 +2209,15 @@
     <t>Leyndell, Royal Capital is a Location in Elden Ring. The Leyndell, Royal Capital region is only accessible to players who have gathered two Great Runes or by following Ranni the Witch quest line and defeating Fia's Champions near the Great Waterfall Crest Site of Grace in the Deeproot Depths, and has content for highly leveled gameplay. For a detailed walkthrough, please visit the walkthrough page for Leyndell, Royal Capital Legacy Dungeon here.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a8e034l0i2moqhosmm855zzp.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a8e034l0i2moqhosmm855zzp.png</t>
+    </r>
   </si>
   <si>
     <t>Lux Ruins</t>
@@ -1192,7 +2232,15 @@
     <t>An old mining site, still active to this day. Its tunnels echo with the grunts and groans of the commoners, tirelessly slaving away, grinding at the rich reservoir of crystals deep within</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697666c6l0i2mozt3d41gvlk4j8.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697666c6l0i2mozt3d41gvlk4j8.png</t>
+    </r>
   </si>
   <si>
     <t>Minor Erdtree Church</t>
@@ -1201,7 +2249,15 @@
     <t>What's left of the Church of the Minor Erdtree</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698ef5fbl0i2mp1l1tslwuty9kl.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698ef5fbl0i2mp1l1tslwuty9kl.png</t>
+    </r>
   </si>
   <si>
     <t>Sealed Tunnel</t>
@@ -1210,7 +2266,15 @@
     <t>Not as small or abandoned as it looks.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698984e2l0i2mpau822kzbjamiq.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698984e2l0i2mpau822kzbjamiq.png</t>
+    </r>
   </si>
   <si>
     <t>Stormcaller Church</t>
@@ -1219,7 +2283,15 @@
     <t>A lonely church on a steppe</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69b9d414l0i2mpdus3zy2at76rr.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69b9d414l0i2mpdus3zy2at76rr.png</t>
+    </r>
   </si>
   <si>
     <t>The Shaded Castle</t>
@@ -1228,7 +2300,15 @@
     <t>An abandoned and Decrepit castle found in the northern region between the Mt. Gelmir and the Altus Plateau regions. The castle is half sunken into a poisonous bog, with the air tinged yellow by the fumes.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6981f5f9l0i2mpl63u29r5fa3te.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6981f5f9l0i2mpl63u29r5fa3te.png</t>
+    </r>
   </si>
   <si>
     <t>Woodfolk Ruins</t>
@@ -1237,7 +2317,15 @@
     <t>Woodfolk Ruins, guarded by Limgrave's creatures, can be found near the Minor Erdtree within Altus Plateau.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69af90afl0i2mpmxqabln2xz5gc.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69af90afl0i2mpmxqabln2xz5gc.png</t>
+    </r>
   </si>
   <si>
     <t>Corpse-stench Shack</t>
@@ -1252,7 +2340,15 @@
     <t>Writheblood ruins, with nearest minor erdtree in background</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d9b8fel0i2mq0i7c25oc8ud27.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d9b8fel0i2mq0i7c25oc8ud27.png</t>
+    </r>
   </si>
   <si>
     <t>Craftsman's Shack</t>
@@ -1261,7 +2357,15 @@
     <t>A series of long-abandoned huts found directly south of the volcano</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d1692bl0i2mq82mmh96k9rqih.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d1692bl0i2mq82mmh96k9rqih.png</t>
+    </r>
   </si>
   <si>
     <t>Gelmir Hero's Grave</t>
@@ -1270,7 +2374,15 @@
     <t>Large Catacombs housing an ancient hero of Mt. Gelmir.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69b3cf18l0i2mqdndclk0p7tmvv.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69b3cf18l0i2mqdndclk0p7tmvv.png</t>
+    </r>
   </si>
   <si>
     <t>Hermit's Shack</t>
@@ -1279,7 +2391,15 @@
     <t>An abandoned shack along the western edge of Mt. Gelmir</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a0735el0i2mqkr50k38bz166b.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a0735el0i2mqkr50k38bz166b.png</t>
+    </r>
   </si>
   <si>
     <t>Fort Laiedd</t>
@@ -1288,7 +2408,15 @@
     <t>Fort Laiedd is found on the western edge of Mt. Gelmir. A fort left broken, still occupied by those who won the battle</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69b78aa3l0i2mqmnrfo05lqjj3.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69b78aa3l0i2mqmnrfo05lqjj3.png</t>
+    </r>
   </si>
   <si>
     <t>Perfumer's Ruins</t>
@@ -1297,7 +2425,15 @@
     <t>A set of ruins found in Altus Plateau, far to the west and below Mt. Gelmir.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f41641l0i2mqtyu5zlb9bg8xc.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f41641l0i2mqtyu5zlb9bg8xc.png</t>
+    </r>
   </si>
   <si>
     <t>Hermit Village</t>
@@ -1306,7 +2442,15 @@
     <t>A dilapidated village southeast of Mt. Gelmir. Now home to Demi-Humans.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69630438l0i2mqvzhowrb84vyy.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69630438l0i2mqvzhowrb84vyy.png</t>
+    </r>
   </si>
   <si>
     <t>Sage's Cave</t>
@@ -1315,7 +2459,15 @@
     <t>Sage's Cave is a dark opening in the side of a mountain. Its dark depths are overrun by hostile undead, but those who brave it may find treasures beyond compare</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a39644l0i2mr10gkkf9agp8m7.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a39644l0i2mr10gkkf9agp8m7.png</t>
+    </r>
   </si>
   <si>
     <t>Second Church Of Marika</t>
@@ -1324,7 +2476,15 @@
     <t>Second of the four Churches of Marika where players can gather a Sacred Tear for their flask.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a7a523l0i2mr4q3lyuakdiubr.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a7a523l0i2mr4q3lyuakdiubr.png</t>
+    </r>
   </si>
   <si>
     <t>Unsightly Catacombs</t>
@@ -1333,7 +2493,15 @@
     <t>A burial grounds crawling with Misbegotten creatures found deep beneath the Perfumer's Ruins. Despite its decrepit state, the catacombs give off a trace of fragrant aromas juxtaposed by the scent of the ancient dead</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69c28019l0i2mrdirn1c1brqcqj.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69c28019l0i2mrdirn1c1brqcqj.png</t>
+    </r>
   </si>
   <si>
     <t>Seethewater Cave</t>
@@ -1342,7 +2510,15 @@
     <t>A cave found along the Seethewater Ravine.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6967952el0i2mrhy8fpgqo0f4hr.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6967952el0i2mrhy8fpgqo0f4hr.png</t>
+    </r>
   </si>
   <si>
     <t>Wyndham Catacombs</t>
@@ -1351,7 +2527,15 @@
     <t>Burial grounds located beneath Wyndham Ruins.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f696c58e8l0i2mrr461qyqfe46y6.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f696c58e8l0i2mrr461qyqfe46y6.png</t>
+    </r>
   </si>
   <si>
     <t>Volcano Cave</t>
@@ -1360,7 +2544,15 @@
     <t>A cave system at the highest point of Mt. Gelmir, made into a home by a family of Demi-Humans hiding their maddened Queen.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69e3f410l0i2mrtcr66ff1g9p4h.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69e3f410l0i2mrtcr66ff1g9p4h.png</t>
+    </r>
   </si>
   <si>
     <t>Wyndham Ruins</t>
@@ -1369,7 +2561,15 @@
     <t>A large set of ruins atop a burial grounds. The reanimated dead still roam the area</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697f4526l0i2mrynoucp5w0m96s.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697f4526l0i2mrynoucp5w0m96s.png</t>
+    </r>
   </si>
   <si>
     <t>Bestial Sanctum</t>
@@ -1378,7 +2578,15 @@
     <t>The Beastial Sanctum is a refuge for those who feed on the dead. Beastly and deformed, the clergyman here will teach the ways of the beast to those who feed it</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69b97ce8l0i2ms4ikyh4h5oxhve.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69b97ce8l0i2ms4ikyh4h5oxhve.png</t>
+    </r>
   </si>
   <si>
     <t>Dragonbarrow Cave</t>
@@ -1387,7 +2595,15 @@
     <t>A small dungeon found beneath the Minor Erdtree in Dragonbarrow</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a52fdal0i2mscdgudt5b894m5.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a52fdal0i2mscdgudt5b894m5.png</t>
+    </r>
   </si>
   <si>
     <t>Divine Tower Of Caelid</t>
@@ -1396,7 +2612,15 @@
     <t>A massive tower found in central Dragonbarrow, north of Caelid. The sides of the tower are crumbling from the massive overgrowth protruding from the plateau</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69bd98abl0i2msf1hgi0pk8vssd.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69bd98abl0i2msf1hgi0pk8vssd.png</t>
+    </r>
   </si>
   <si>
     <t>Deep Siofra Well</t>
@@ -1405,7 +2629,15 @@
     <t>A second lift to the Siofra River.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69bc1846l0i2msgjjzgo3z9kwjh.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69bc1846l0i2msgjjzgo3z9kwjh.png</t>
+    </r>
   </si>
   <si>
     <t>Fort Faroth</t>
@@ -1414,7 +2646,15 @@
     <t>Fort Faroth used to house the guardians of Caelid, but its defenders have long fallen, now bound to earth as hostile spirits</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69f6581cl0i2msjrduyrq5lzcub.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69f6581cl0i2msjrduyrq5lzcub.png</t>
+    </r>
   </si>
   <si>
     <t>Lenne's Rise</t>
@@ -1423,7 +2663,15 @@
     <t>An observation tower in the northeast of Dragonbarrow, off the path to the Bestial Sanctum</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f696f226dl0i2msytg87r3uaqkyd.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f696f226dl0i2msytg87r3uaqkyd.png</t>
+    </r>
   </si>
   <si>
     <t>Isolated Merchant's Shack (dragonbarrow)</t>
@@ -1432,7 +2680,15 @@
     <t>A lonesome hut found atop a plateau in western Dragonbarrow. Home to a hermit looking to part with various odds and ends... for a price</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69dd1443l0i2mt2e1wsljt8hffr.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69dd1443l0i2mt2e1wsljt8hffr.png</t>
+    </r>
   </si>
   <si>
     <t>Castle Sol</t>
@@ -1441,7 +2697,15 @@
     <t>A castle found in the northeast of the Mountaintops of the Giants. Stronghold of Commander Niall and his spectral knights</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697b13fal0i2mt2gmldy864m2zj.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697b13fal0i2mt2gmldy864m2zj.png</t>
+    </r>
   </si>
   <si>
     <t>Church Of Repose</t>
@@ -1450,7 +2714,15 @@
     <t>A small crumbled church high on the mountains</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6986804dl0i2mt48ydii28an8a.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6986804dl0i2mt48ydii28an8a.png</t>
+    </r>
   </si>
   <si>
     <t>Forge Of The Giants</t>
@@ -1459,7 +2731,15 @@
     <t>The giant's forge could contain a volcano.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69d071acl0i2mtig4ni1eefzjg.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69d071acl0i2mtig4ni1eefzjg.png</t>
+    </r>
   </si>
   <si>
     <t>Grand Lift Of Rold</t>
@@ -1468,7 +2748,15 @@
     <t>The impressive Lift of Rold transports those who wield the right key. But could there be more than one destination??</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697bdfffl0i2mtpen4salledwa.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697bdfffl0i2mtpen4salledwa.png</t>
+    </r>
   </si>
   <si>
     <t>Guardians' Garrison</t>
@@ -1477,7 +2765,15 @@
     <t>Guardian's Garrison is staffed by Fire Priests, who zealously watch the road leading to the Giant's Forge</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f698657ecl0i2mtswf7rb3f7u2l7.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f698657ecl0i2mtswf7rb3f7u2l7.png</t>
+    </r>
   </si>
   <si>
     <t>Giant-conquering Hero's Grave</t>
@@ -1486,7 +2782,15 @@
     <t>A complex dungeon filled with invulnerable enemies and strange golden floor seals.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697036fbl0i2mtt1y66q5foxdq.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697036fbl0i2mtt1y66q5foxdq.png</t>
+    </r>
   </si>
   <si>
     <t>Shack Of The Lofty</t>
@@ -1495,7 +2799,15 @@
     <t>A lone shack found in the Mountaintops of the Giants. This shack was once visited by a traveling maiden, but she had long since perished under the elements</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6986c248l0i2mud577bnmdfh8w.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6986c248l0i2mud577bnmdfh8w.png</t>
+    </r>
   </si>
   <si>
     <t>Spiritcaller's Cave</t>
@@ -1504,7 +2816,15 @@
     <t>A cave found by the Freezing Lake, heavily battered by the elements</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a25d31l0i2muhzfvabyqxiv2v.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a25d31l0i2muhzfvabyqxiv2v.png</t>
+    </r>
   </si>
   <si>
     <t>Stargazer's Ruins</t>
@@ -1513,7 +2833,15 @@
     <t>A set of ruins found in central Mountaintops of the Giants. The plateau it is sitting on is located between two bridges.</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f695f2681l0i2muinpxbngca38up.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f695f2681l0i2muinpxbngca38up.png</t>
+    </r>
   </si>
   <si>
     <t>Zamor Ruins</t>
@@ -1522,7 +2850,15 @@
     <t>The ancient Town of Zamor, now fallen to ruin. Its anzient order of knights still roam the snow-capped streets</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69efba83l0i2mv5car0cnamiotl.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69efba83l0i2mv5car0cnamiotl.png</t>
+    </r>
   </si>
   <si>
     <t>Consecrated Snowfield Catacombs</t>
@@ -1531,7 +2867,15 @@
     <t>The Catacombs of the fields leading to Miquella's Haligtree hide powerful secrets, but are zealously guarded</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69b5132al0i2mvbu1p0fqlhzbjb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69b5132al0i2mvbu1p0fqlhzbjb.png</t>
+    </r>
   </si>
   <si>
     <t>Apostate Derelict</t>
@@ -1540,7 +2884,15 @@
     <t>A ruined church lying in the frozen north-west of the Consecrated Grounds</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f697fe6e2l0i2mvhwmvjnk9ek1hb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f697fe6e2l0i2mvhwmvjnk9ek1hb.png</t>
+    </r>
   </si>
   <si>
     <t>Heretical Rise</t>
@@ -1549,7 +2901,15 @@
     <t>The secrets of Heretical Rise are closely guarded by hidden magic, but the tower is overrun with hostile Avionette Soldiers</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f6994064fl0i2mvrzl0ze8veus3.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f6994064fl0i2mvrzl0ze8veus3.png</t>
+    </r>
   </si>
   <si>
     <t>Hidden Path To The Haligtree</t>
@@ -1558,7 +2918,15 @@
     <t>The secret passage leading to Miquella's Haligtree has been polluted by Those Who Live in Dead</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69a00a08l0i2mvsxha1qmkpwnqb.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69a00a08l0i2mvsxha1qmkpwnqb.png</t>
+    </r>
   </si>
   <si>
     <t>Yelough Anix Ruins</t>
@@ -1567,7 +2935,15 @@
     <t>A set of ruins found in the northwest of the Consecrated Snowfield</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69ea8ac4l0i2mw3htuchm8ubrxk.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69ea8ac4l0i2mw3htuchm8ubrxk.png</t>
+    </r>
   </si>
   <si>
     <t>Ordina, Liturgical Town</t>
@@ -1576,7 +2952,15 @@
     <t>Ghost town inhabitated in the evergaol</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f699f31b0l0i2mw5av5ayol4jqjn.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f699f31b0l0i2mw5av5ayol4jqjn.png</t>
+    </r>
   </si>
   <si>
     <t>Yelough Anix Tunnel</t>
@@ -1585,28 +2969,66 @@
     <t>An icy tunnel on the southern edge of the Yelough Anix Ruins</t>
   </si>
   <si>
-    <t>https://eldenring.fanapis.com/images/locations/17f69dfae57l0i2mwa08uny35m2uqf.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://eldenring.fanapis.com/images/locations/17f69dfae57l0i2mwa08uny35m2uqf.png</t>
+    </r>
+  </si>
+  <si>
+    <t>Limgrave</t>
+  </si>
+  <si>
+    <t>Caelid</t>
+  </si>
+  <si>
+    <t>Weeping Peninsula</t>
+  </si>
+  <si>
+    <t>Liurnia of the Lakes</t>
+  </si>
+  <si>
+    <t>Dragonbarrow</t>
+  </si>
+  <si>
+    <t>Altus Pleateau</t>
+  </si>
+  <si>
+    <t>Mountaintops of the Giants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1614,36 +3036,82 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1657,10 +3125,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4285F4"/>
@@ -1681,25 +3149,25 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Sheets">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1708,76 +3176,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1788,3256 +3246,4231 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="12.6719" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" ht="13.65" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" ht="13.65" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" ht="13.65" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" ht="13.65" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="15" ht="13.65" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="C15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="16" ht="13.65" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="C16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" ht="13.65" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="C17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="18" ht="13.65" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" ht="13.65" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="C19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="20" ht="13.65" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="21" ht="13.65" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="C21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="22" ht="13.65" customHeight="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="C22" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="23" ht="13.65" customHeight="1">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="C23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" ht="13.65" customHeight="1">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="C24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="25" ht="13.65" customHeight="1">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="C25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="26" ht="13.65" customHeight="1">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="C26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="27" ht="13.65" customHeight="1">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="C27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="28" ht="13.65" customHeight="1">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="C28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="29" ht="13.65" customHeight="1">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="C29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="30" ht="13.65" customHeight="1">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="C30" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="31" ht="13.65" customHeight="1">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="C31" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="32" ht="13.65" customHeight="1">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="C32" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="33" ht="13.65" customHeight="1">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="C33" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="34" ht="13.65" customHeight="1">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="35" ht="13.65" customHeight="1">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="C35" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="36" ht="13.65" customHeight="1">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C36" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="37" ht="13.65" customHeight="1">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="C37" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" t="s" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="38" ht="13.65" customHeight="1">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="C38" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="39" ht="13.65" customHeight="1">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="C39" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="40" ht="13.65" customHeight="1">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="C40" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" t="s" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="41" ht="13.65" customHeight="1">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="C41" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" t="s" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="42" ht="13.65" customHeight="1">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="C42" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" t="s" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="43" ht="13.65" customHeight="1">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="C43" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" t="s" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="44" ht="13.65" customHeight="1">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="C44" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="45" ht="13.65" customHeight="1">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="C45" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="46" ht="13.65" customHeight="1">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="C46" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s" s="4">
         <v>137</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="47" ht="13.65" customHeight="1">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="C47" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" t="s" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="48" ht="13.65" customHeight="1">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="C48" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" t="s" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="49" ht="13.65" customHeight="1">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="C49" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" t="s" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="50" ht="13.65" customHeight="1">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="C50" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="3">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" t="s" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="51" ht="13.65" customHeight="1">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="C51" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="3">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" t="s" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="52" ht="13.65" customHeight="1">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="C52" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" t="s" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="53" ht="13.65" customHeight="1">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="C53" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" t="s" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="54" ht="13.65" customHeight="1">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="C54" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" t="s" s="4">
         <v>161</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="55" ht="13.65" customHeight="1">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="C55" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="3">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" t="s" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="56" ht="13.65" customHeight="1">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="C56" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C56" s="3">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" t="s" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="57" ht="13.65" customHeight="1">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="C57" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="3">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" t="s" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="58" ht="13.65" customHeight="1">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="C58" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" t="s" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="59" ht="13.65" customHeight="1">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="C59" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="3">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" t="s" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="60" ht="13.65" customHeight="1">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="C60" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="3">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" t="s" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="61" ht="13.65" customHeight="1">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="C61" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="3">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" t="s" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="62" ht="13.65" customHeight="1">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="C62" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" t="s" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>62.0</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="63" ht="13.65" customHeight="1">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="C63" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" t="s" s="4">
         <v>188</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="64" ht="13.65" customHeight="1">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="C64" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="3">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" t="s" s="4">
         <v>191</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="65" ht="13.65" customHeight="1">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="C65" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" t="s" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="66" ht="13.65" customHeight="1">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="C66" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66" s="3">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" t="s" s="4">
         <v>197</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="67" ht="13.65" customHeight="1">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="C67" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" t="s" s="4">
         <v>199</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="68" ht="13.65" customHeight="1">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="C68" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="3">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" t="s" s="4">
         <v>202</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>68.0</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="69" ht="13.65" customHeight="1">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="C69" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="3">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" t="s" s="4">
         <v>205</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>69.0</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="70" ht="13.65" customHeight="1">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="C70" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" t="s" s="4">
         <v>208</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="71" ht="13.65" customHeight="1">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="C71" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" t="s" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="72" ht="13.65" customHeight="1">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="C72" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C72" s="3">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s" s="2">
         <v>213</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" ht="13.65" customHeight="1">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="C73" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="C73" s="3">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" t="s" s="4">
         <v>216</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="74" ht="13.65" customHeight="1">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="C74" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="C74" s="3">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" t="s" s="4">
         <v>219</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="75" ht="13.65" customHeight="1">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="C75" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" t="s" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="76" ht="13.65" customHeight="1">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="C76" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C76" s="3">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" t="s" s="4">
         <v>225</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>76.0</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="77" ht="13.65" customHeight="1">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="C77" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="3">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" t="s" s="4">
         <v>228</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="78" ht="13.65" customHeight="1">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="C78" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="3">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" t="s" s="4">
         <v>231</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="B79" s="1" t="s">
+    <row r="79" ht="13.65" customHeight="1">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="C79" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="3">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" t="s" s="4">
         <v>234</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="80" ht="13.65" customHeight="1">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="C80" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="3">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" t="s" s="4">
         <v>237</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    <row r="81" ht="13.65" customHeight="1">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="C81" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="3">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" t="s" s="4">
         <v>240</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="82" ht="13.65" customHeight="1">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="C82" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="3">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" t="s" s="4">
         <v>243</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>82.0</v>
-      </c>
-      <c r="B83" s="1" t="s">
+    <row r="83" ht="13.65" customHeight="1">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="C83" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" t="s" s="4">
         <v>245</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>83.0</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="84" ht="13.65" customHeight="1">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="C84" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C84" s="3">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" t="s" s="4">
         <v>248</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>84.0</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="85" ht="13.65" customHeight="1">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="C85" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="3">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" t="s" s="4">
         <v>251</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>85.0</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="86" ht="13.65" customHeight="1">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="C86" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C86" s="3">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" t="s" s="4">
         <v>254</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>86.0</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="87" ht="13.65" customHeight="1">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="C87" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="C87" s="3">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" t="s" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>87.0</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="88" ht="13.65" customHeight="1">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="C88" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="3">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" t="s" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>88.0</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    <row r="89" ht="13.65" customHeight="1">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="C89" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="3">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" t="s" s="4">
         <v>263</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>89.0</v>
-      </c>
-      <c r="B90" s="1" t="s">
+    <row r="90" ht="13.65" customHeight="1">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="C90" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="3">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" t="s" s="4">
         <v>266</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="B91" s="1" t="s">
+    <row r="91" ht="13.65" customHeight="1">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="C91" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C91" s="3">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" t="s" s="4">
         <v>269</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="92" ht="13.65" customHeight="1">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="C92" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="3">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" t="s" s="4">
         <v>272</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>92.0</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="93" ht="13.65" customHeight="1">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="C93" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="C93" s="3">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" t="s" s="4">
         <v>275</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="B94" s="1" t="s">
+    <row r="94" ht="13.65" customHeight="1">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="C94" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="C94" s="3">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" t="s" s="4">
         <v>278</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="B95" s="1" t="s">
+    <row r="95" ht="13.65" customHeight="1">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="C95" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="C95" s="3">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" t="s" s="4">
         <v>281</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="B96" s="1" t="s">
+    <row r="96" ht="13.65" customHeight="1">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="C96" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="3">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" t="s" s="4">
         <v>284</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>96.0</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="97" ht="13.65" customHeight="1">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="C97" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C97" s="3">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" t="s" s="4">
         <v>287</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>97.0</v>
-      </c>
-      <c r="B98" s="1" t="s">
+    <row r="98" ht="13.65" customHeight="1">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="C98" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C98" s="3">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" t="s" s="4">
         <v>290</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="B99" s="1" t="s">
+    <row r="99" ht="13.65" customHeight="1">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="C99" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C99" s="3">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" t="s" s="4">
         <v>293</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>99.0</v>
-      </c>
-      <c r="B100" s="1" t="s">
+    <row r="100" ht="13.65" customHeight="1">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="C100" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="C100" s="3">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" t="s" s="4">
         <v>296</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="101" ht="13.65" customHeight="1">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="C101" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="C101" s="3">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" t="s" s="4">
         <v>299</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>101.0</v>
-      </c>
-      <c r="B102" s="1" t="s">
+    <row r="102" ht="13.65" customHeight="1">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="C102" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="C102" s="3">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" t="s" s="4">
         <v>302</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>102.0</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="103" ht="13.65" customHeight="1">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="C103" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C103" s="3">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" t="s" s="4">
         <v>305</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>103.0</v>
-      </c>
-      <c r="B104" s="1" t="s">
+    <row r="104" ht="13.65" customHeight="1">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="C104" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C104" s="3">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" t="s" s="4">
         <v>308</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>104.0</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="105" ht="13.65" customHeight="1">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="C105" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C105" s="3">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" t="s" s="4">
         <v>311</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>105.0</v>
-      </c>
-      <c r="B106" s="1" t="s">
+    <row r="106" ht="13.65" customHeight="1">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="C106" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="C106" s="3">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" t="s" s="4">
         <v>314</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>106.0</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="107" ht="13.65" customHeight="1">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="C107" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="C107" s="3">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" t="s" s="4">
         <v>317</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>107.0</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="108" ht="13.65" customHeight="1">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="C108" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C108" s="3">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" t="s" s="4">
         <v>320</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>108.0</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="109" ht="13.65" customHeight="1">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="C109" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="C109" s="3">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" t="s" s="4">
         <v>323</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>109.0</v>
-      </c>
-      <c r="B110" s="1" t="s">
+    <row r="110" ht="13.65" customHeight="1">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="C110" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" t="s" s="4">
         <v>326</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>110.0</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    <row r="111" ht="13.65" customHeight="1">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="C111" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C111" s="3">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" t="s" s="4">
         <v>329</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>111.0</v>
-      </c>
-      <c r="B112" s="1" t="s">
+    <row r="112" ht="13.65" customHeight="1">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="C112" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" t="s" s="4">
         <v>332</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>112.0</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="113" ht="13.65" customHeight="1">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="C113" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C113" s="3">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" t="s" s="4">
         <v>335</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="114" ht="13.65" customHeight="1">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="C114" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="C114" s="3">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" t="s" s="4">
         <v>338</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>114.0</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="115" ht="13.65" customHeight="1">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="C115" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C115" s="3">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" t="s" s="4">
         <v>341</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>115.0</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="116" ht="13.65" customHeight="1">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="C116" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="C116" s="3">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" t="s" s="4">
         <v>344</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>116.0</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="117" ht="13.65" customHeight="1">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="C117" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="C117" s="3">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" t="s" s="4">
         <v>347</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>117.0</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="118" ht="13.65" customHeight="1">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="C118" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="C118" s="3">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" t="s" s="4">
         <v>350</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>118.0</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="119" ht="13.65" customHeight="1">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="C119" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="C119" s="3">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" t="s" s="4">
         <v>353</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>119.0</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="120" ht="13.65" customHeight="1">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="C120" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="C120" s="3">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" t="s" s="4">
         <v>356</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>120.0</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="121" ht="13.65" customHeight="1">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="C121" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" t="s" s="4">
         <v>357</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>121.0</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="122" ht="13.65" customHeight="1">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="C122" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="C122" s="3">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" t="s" s="4">
         <v>360</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="123" ht="13.65" customHeight="1">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="C123" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C123" s="3">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" t="s" s="4">
         <v>363</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="124" ht="13.65" customHeight="1">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="C124" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C124" s="3">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" t="s" s="4">
         <v>366</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>124.0</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="125" ht="13.65" customHeight="1">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="C125" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="C125" s="3">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" t="s" s="4">
         <v>369</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="126" ht="13.65" customHeight="1">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="C126" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="C126" s="3">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" t="s" s="4">
         <v>372</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>126.0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="127" ht="13.65" customHeight="1">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="C127" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="C127" s="3">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" t="s" s="4">
         <v>375</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>127.0</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="128" ht="13.65" customHeight="1">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="C128" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C128" s="3">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" t="s" s="4">
         <v>378</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="129" ht="13.65" customHeight="1">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="C129" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="C129" s="3">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" t="s" s="4">
         <v>381</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="130" ht="13.65" customHeight="1">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="C130" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="C130" s="3">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" t="s" s="4">
         <v>384</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>130.0</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="131" ht="13.65" customHeight="1">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="C131" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="C131" s="3">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" t="s" s="4">
         <v>385</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>131.0</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="132" ht="13.65" customHeight="1">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="C132" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="C132" s="3">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" t="s" s="4">
         <v>388</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>132.0</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="133" ht="13.65" customHeight="1">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="C133" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="C133" s="3">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s" s="2">
         <v>390</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>133.0</v>
-      </c>
-      <c r="B134" s="1" t="s">
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" ht="13.65" customHeight="1">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="C134" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="C134" s="3">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" t="s" s="4">
         <v>393</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>134.0</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="135" ht="13.65" customHeight="1">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="C135" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="C135" s="3">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" t="s" s="4">
         <v>396</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>135.0</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    <row r="136" ht="13.65" customHeight="1">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="C136" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="C136" s="3">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" t="s" s="4">
         <v>399</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>136.0</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="137" ht="13.65" customHeight="1">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="C137" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="C137" s="3">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" t="s" s="4">
         <v>402</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>137.0</v>
-      </c>
-      <c r="B138" s="1" t="s">
+    <row r="138" ht="13.65" customHeight="1">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="C138" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="C138" s="3">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" t="s" s="4">
         <v>405</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>138.0</v>
-      </c>
-      <c r="B139" s="1" t="s">
+    <row r="139" ht="13.65" customHeight="1">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="C139" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D139" s="1" t="s">
+      <c r="C139" s="3">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" t="s" s="4">
         <v>408</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="140" ht="13.65" customHeight="1">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="C140" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="C140" s="3">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>140.0</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" ht="13.65" customHeight="1">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="C141" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="C141" s="3">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" t="s" s="4">
         <v>413</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>141.0</v>
-      </c>
-      <c r="B142" s="1" t="s">
+    <row r="142" ht="13.65" customHeight="1">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="C142" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="C142" s="3">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" t="s" s="4">
         <v>416</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>142.0</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    <row r="143" ht="13.65" customHeight="1">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="C143" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="C143" s="3">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" t="s" s="4">
         <v>419</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>143.0</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="144" ht="13.65" customHeight="1">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="C144" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="C144" s="3">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" t="s" s="4">
         <v>422</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>144.0</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="145" ht="13.65" customHeight="1">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="C145" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="C145" s="3">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" t="s" s="4">
         <v>425</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>145.0</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="146" ht="13.65" customHeight="1">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="C146" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="C146" s="3">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" t="s" s="4">
         <v>428</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>146.0</v>
-      </c>
-      <c r="B147" s="1" t="s">
+    <row r="147" ht="13.65" customHeight="1">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="C147" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="C147" s="3">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" t="s" s="4">
         <v>431</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>147.0</v>
-      </c>
-      <c r="B148" s="1" t="s">
+    <row r="148" ht="13.65" customHeight="1">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="C148" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="C148" s="3">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" t="s" s="4">
         <v>434</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>148.0</v>
-      </c>
-      <c r="B149" s="1" t="s">
+    <row r="149" ht="13.65" customHeight="1">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="C149" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="C149" s="3">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" t="s" s="4">
         <v>437</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="B150" s="1" t="s">
+    <row r="150" ht="13.65" customHeight="1">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="C150" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="C150" s="3">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" t="s" s="4">
         <v>440</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="B151" s="1" t="s">
+    <row r="151" ht="13.65" customHeight="1">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="C151" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="C151" s="3">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" t="s" s="4">
         <v>443</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>151.0</v>
-      </c>
-      <c r="B152" s="1" t="s">
+    <row r="152" ht="13.65" customHeight="1">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="C152" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="C152" s="3">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" t="s" s="4">
         <v>446</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>152.0</v>
-      </c>
-      <c r="B153" s="1" t="s">
+    <row r="153" ht="13.65" customHeight="1">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="C153" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="C153" s="3">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" t="s" s="4">
         <v>449</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>153.0</v>
-      </c>
-      <c r="B154" s="1" t="s">
+    <row r="154" ht="13.65" customHeight="1">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="C154" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="C154" s="3">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" t="s" s="4">
         <v>452</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="B155" s="1" t="s">
+    <row r="155" ht="13.65" customHeight="1">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="C155" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="C155" s="3">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" t="s" s="4">
         <v>455</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>155.0</v>
-      </c>
-      <c r="B156" s="1" t="s">
+    <row r="156" ht="13.65" customHeight="1">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="C156" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="C156" s="3">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" t="s" s="4">
         <v>458</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>156.0</v>
-      </c>
-      <c r="B157" s="1" t="s">
+    <row r="157" ht="13.65" customHeight="1">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="C157" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="C157" s="3">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" t="s" s="4">
         <v>461</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>157.0</v>
-      </c>
-      <c r="B158" s="1" t="s">
+    <row r="158" ht="13.65" customHeight="1">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="C158" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="C158" s="3">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" t="s" s="4">
         <v>464</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>158.0</v>
-      </c>
-      <c r="B159" s="1" t="s">
+    <row r="159" ht="13.65" customHeight="1">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="C159" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="C159" s="3">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" t="s" s="4">
         <v>467</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>159.0</v>
-      </c>
-      <c r="B160" s="1" t="s">
+    <row r="160" ht="13.65" customHeight="1">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="C160" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="C160" s="3">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" t="s" s="4">
         <v>470</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>160.0</v>
-      </c>
-      <c r="B161" s="1" t="s">
+    <row r="161" ht="13.65" customHeight="1">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="C161" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="C161" s="3">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" t="s" s="4">
         <v>473</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>161.0</v>
-      </c>
-      <c r="B162" s="1" t="s">
+    <row r="162" ht="13.65" customHeight="1">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="C162" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="C162" s="3">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" t="s" s="4">
         <v>476</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>162.0</v>
-      </c>
-      <c r="B163" s="1" t="s">
+    <row r="163" ht="13.65" customHeight="1">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="C163" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="C163" s="3">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" t="s" s="4">
         <v>479</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>163.0</v>
-      </c>
-      <c r="B164" s="1" t="s">
+    <row r="164" ht="13.65" customHeight="1">
+      <c r="A164" s="3">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="C164" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="C164" s="3">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" t="s" s="4">
         <v>482</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>164.0</v>
-      </c>
-      <c r="B165" s="1" t="s">
+    <row r="165" ht="13.65" customHeight="1">
+      <c r="A165" s="3">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="C165" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="C165" s="3">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" t="s" s="4">
         <v>485</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>165.0</v>
-      </c>
-      <c r="B166" s="1" t="s">
+    <row r="166" ht="13.65" customHeight="1">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="C166" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="C166" s="3">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" t="s" s="4">
         <v>488</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>166.0</v>
-      </c>
-      <c r="B167" s="1" t="s">
+    <row r="167" ht="13.65" customHeight="1">
+      <c r="A167" s="3">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="C167" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="C167" s="3">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" t="s" s="4">
         <v>491</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>167.0</v>
-      </c>
-      <c r="B168" s="1" t="s">
+    <row r="168" ht="13.65" customHeight="1">
+      <c r="A168" s="3">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="C168" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="C168" s="3">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" t="s" s="4">
         <v>494</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>168.0</v>
-      </c>
-      <c r="B169" s="1" t="s">
+    <row r="169" ht="13.65" customHeight="1">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="C169" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="C169" s="3">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" t="s" s="4">
         <v>497</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>169.0</v>
-      </c>
-      <c r="B170" s="1" t="s">
+    <row r="170" ht="13.65" customHeight="1">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="C170" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="C170" s="3">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" t="s" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>170.0</v>
-      </c>
-      <c r="B171" s="1" t="s">
+    <row r="171" ht="13.65" customHeight="1">
+      <c r="A171" s="3">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="C171" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="C171" s="3">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" t="s" s="4">
         <v>503</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>171.0</v>
-      </c>
-      <c r="B172" s="1" t="s">
+    <row r="172" ht="13.65" customHeight="1">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="C172" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="C172" s="3">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" t="s" s="4">
         <v>506</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>172.0</v>
-      </c>
-      <c r="B173" s="1" t="s">
+    <row r="173" ht="13.65" customHeight="1">
+      <c r="A173" s="3">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="C173" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="C173" s="3">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" t="s" s="4">
         <v>509</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>173.0</v>
-      </c>
-      <c r="B174" s="1" t="s">
+    <row r="174" ht="13.65" customHeight="1">
+      <c r="A174" s="3">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="C174" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="C174" s="3">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" t="s" s="4">
         <v>512</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>174.0</v>
-      </c>
-      <c r="B175" s="1" t="s">
+    <row r="175" ht="13.65" customHeight="1">
+      <c r="A175" s="3">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="C175" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="C175" s="3">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" t="s" s="4">
         <v>515</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="B176" s="1" t="s">
+    <row r="176" ht="13.65" customHeight="1">
+      <c r="A176" s="3">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="C176" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="C176" s="3">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" t="s" s="4">
         <v>518</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>176.0</v>
-      </c>
-      <c r="B177" s="1" t="s">
+    <row r="177" ht="13.65" customHeight="1">
+      <c r="A177" s="3">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="C177" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="C177" s="3">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" t="s" s="4">
         <v>521</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>177.0</v>
-      </c>
-      <c r="B178" s="1" t="s">
+    <row r="178" ht="13.65" customHeight="1">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="C178" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="C178" s="3">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" t="s" s="4">
         <v>524</v>
       </c>
+    </row>
+    <row r="179" ht="13.65" customHeight="1">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" ht="13.65" customHeight="1">
+      <c r="A180" s="3">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C180" s="3">
+        <v>2</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" ht="13.65" customHeight="1">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C181" s="3">
+        <v>3</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" ht="13.65" customHeight="1">
+      <c r="A182" s="3">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C182" s="3">
+        <v>4</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="6"/>
+    </row>
+    <row r="183" ht="13.65" customHeight="1">
+      <c r="A183" s="3">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C183" s="3">
+        <v>5</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" ht="13.65" customHeight="1">
+      <c r="A184" s="3">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C184" s="3">
+        <v>6</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" ht="13.65" customHeight="1">
+      <c r="A185" s="3">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C185" s="3">
+        <v>7</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="E4"/>
-    <hyperlink r:id="rId4" ref="E5"/>
-    <hyperlink r:id="rId5" ref="E6"/>
-    <hyperlink r:id="rId6" ref="E7"/>
-    <hyperlink r:id="rId7" ref="E8"/>
-    <hyperlink r:id="rId8" ref="E9"/>
-    <hyperlink r:id="rId9" ref="E10"/>
-    <hyperlink r:id="rId10" ref="E11"/>
-    <hyperlink r:id="rId11" ref="E12"/>
-    <hyperlink r:id="rId12" ref="E13"/>
-    <hyperlink r:id="rId13" ref="E14"/>
-    <hyperlink r:id="rId14" ref="E15"/>
-    <hyperlink r:id="rId15" ref="E16"/>
-    <hyperlink r:id="rId16" ref="E17"/>
-    <hyperlink r:id="rId17" ref="E18"/>
-    <hyperlink r:id="rId18" ref="E19"/>
-    <hyperlink r:id="rId19" ref="E20"/>
-    <hyperlink r:id="rId20" ref="E21"/>
-    <hyperlink r:id="rId21" ref="E22"/>
-    <hyperlink r:id="rId22" ref="E23"/>
-    <hyperlink r:id="rId23" ref="E24"/>
-    <hyperlink r:id="rId24" ref="E25"/>
-    <hyperlink r:id="rId25" ref="E26"/>
-    <hyperlink r:id="rId26" ref="E27"/>
-    <hyperlink r:id="rId27" ref="E28"/>
-    <hyperlink r:id="rId28" ref="E29"/>
-    <hyperlink r:id="rId29" ref="E30"/>
-    <hyperlink r:id="rId30" ref="E31"/>
-    <hyperlink r:id="rId31" ref="E32"/>
-    <hyperlink r:id="rId32" ref="E33"/>
-    <hyperlink r:id="rId33" ref="E34"/>
-    <hyperlink r:id="rId34" ref="E35"/>
-    <hyperlink r:id="rId35" ref="E36"/>
-    <hyperlink r:id="rId36" ref="E37"/>
-    <hyperlink r:id="rId37" ref="E38"/>
-    <hyperlink r:id="rId38" ref="E39"/>
-    <hyperlink r:id="rId39" ref="E40"/>
-    <hyperlink r:id="rId40" ref="E41"/>
-    <hyperlink r:id="rId41" ref="E42"/>
-    <hyperlink r:id="rId42" ref="E43"/>
-    <hyperlink r:id="rId43" ref="E44"/>
-    <hyperlink r:id="rId44" ref="E45"/>
-    <hyperlink r:id="rId45" ref="E46"/>
-    <hyperlink r:id="rId46" ref="E47"/>
-    <hyperlink r:id="rId47" ref="E48"/>
-    <hyperlink r:id="rId48" ref="E49"/>
-    <hyperlink r:id="rId49" ref="E50"/>
-    <hyperlink r:id="rId50" ref="E51"/>
-    <hyperlink r:id="rId51" ref="E52"/>
-    <hyperlink r:id="rId52" ref="E53"/>
-    <hyperlink r:id="rId53" ref="E54"/>
-    <hyperlink r:id="rId54" ref="E55"/>
-    <hyperlink r:id="rId55" ref="E56"/>
-    <hyperlink r:id="rId56" ref="E57"/>
-    <hyperlink r:id="rId57" ref="E58"/>
-    <hyperlink r:id="rId58" ref="E59"/>
-    <hyperlink r:id="rId59" ref="E60"/>
-    <hyperlink r:id="rId60" ref="E61"/>
-    <hyperlink r:id="rId61" ref="E62"/>
-    <hyperlink r:id="rId62" ref="E63"/>
-    <hyperlink r:id="rId63" ref="E64"/>
-    <hyperlink r:id="rId64" ref="E65"/>
-    <hyperlink r:id="rId65" ref="E66"/>
-    <hyperlink r:id="rId66" ref="E67"/>
-    <hyperlink r:id="rId67" ref="E68"/>
-    <hyperlink r:id="rId68" ref="E69"/>
-    <hyperlink r:id="rId69" ref="E70"/>
-    <hyperlink r:id="rId70" ref="E71"/>
-    <hyperlink r:id="rId71" ref="E73"/>
-    <hyperlink r:id="rId72" ref="E74"/>
-    <hyperlink r:id="rId73" ref="E75"/>
-    <hyperlink r:id="rId74" ref="E76"/>
-    <hyperlink r:id="rId75" ref="E77"/>
-    <hyperlink r:id="rId76" ref="E78"/>
-    <hyperlink r:id="rId77" ref="E79"/>
-    <hyperlink r:id="rId78" ref="E80"/>
-    <hyperlink r:id="rId79" ref="E81"/>
-    <hyperlink r:id="rId80" ref="E82"/>
-    <hyperlink r:id="rId81" ref="E83"/>
-    <hyperlink r:id="rId82" ref="E84"/>
-    <hyperlink r:id="rId83" ref="E85"/>
-    <hyperlink r:id="rId84" ref="E86"/>
-    <hyperlink r:id="rId85" ref="E87"/>
-    <hyperlink r:id="rId86" ref="E88"/>
-    <hyperlink r:id="rId87" ref="E89"/>
-    <hyperlink r:id="rId88" ref="E90"/>
-    <hyperlink r:id="rId89" ref="E91"/>
-    <hyperlink r:id="rId90" ref="E92"/>
-    <hyperlink r:id="rId91" ref="E93"/>
-    <hyperlink r:id="rId92" ref="E94"/>
-    <hyperlink r:id="rId93" ref="E95"/>
-    <hyperlink r:id="rId94" ref="E96"/>
-    <hyperlink r:id="rId95" ref="E97"/>
-    <hyperlink r:id="rId96" ref="E98"/>
-    <hyperlink r:id="rId97" ref="E99"/>
-    <hyperlink r:id="rId98" ref="E100"/>
-    <hyperlink r:id="rId99" ref="E101"/>
-    <hyperlink r:id="rId100" ref="E102"/>
-    <hyperlink r:id="rId101" ref="E103"/>
-    <hyperlink r:id="rId102" ref="E104"/>
-    <hyperlink r:id="rId103" ref="E105"/>
-    <hyperlink r:id="rId104" ref="E106"/>
-    <hyperlink r:id="rId105" ref="E107"/>
-    <hyperlink r:id="rId106" ref="E108"/>
-    <hyperlink r:id="rId107" ref="E109"/>
-    <hyperlink r:id="rId108" ref="E110"/>
-    <hyperlink r:id="rId109" ref="E111"/>
-    <hyperlink r:id="rId110" ref="E112"/>
-    <hyperlink r:id="rId111" ref="E113"/>
-    <hyperlink r:id="rId112" ref="E114"/>
-    <hyperlink r:id="rId113" ref="E115"/>
-    <hyperlink r:id="rId114" ref="E116"/>
-    <hyperlink r:id="rId115" ref="E117"/>
-    <hyperlink r:id="rId116" ref="E118"/>
-    <hyperlink r:id="rId117" ref="E119"/>
-    <hyperlink r:id="rId118" ref="E120"/>
-    <hyperlink r:id="rId119" ref="E121"/>
-    <hyperlink r:id="rId120" ref="E122"/>
-    <hyperlink r:id="rId121" ref="E123"/>
-    <hyperlink r:id="rId122" ref="E124"/>
-    <hyperlink r:id="rId123" ref="E125"/>
-    <hyperlink r:id="rId124" ref="E126"/>
-    <hyperlink r:id="rId125" ref="E127"/>
-    <hyperlink r:id="rId126" ref="E128"/>
-    <hyperlink r:id="rId127" ref="E129"/>
-    <hyperlink r:id="rId128" ref="E130"/>
-    <hyperlink r:id="rId129" ref="E131"/>
-    <hyperlink r:id="rId130" ref="E132"/>
-    <hyperlink r:id="rId131" ref="E134"/>
-    <hyperlink r:id="rId132" ref="E135"/>
-    <hyperlink r:id="rId133" ref="E136"/>
-    <hyperlink r:id="rId134" ref="E137"/>
-    <hyperlink r:id="rId135" ref="E138"/>
-    <hyperlink r:id="rId136" ref="E139"/>
-    <hyperlink r:id="rId137" ref="E141"/>
-    <hyperlink r:id="rId138" ref="E142"/>
-    <hyperlink r:id="rId139" ref="E143"/>
-    <hyperlink r:id="rId140" ref="E144"/>
-    <hyperlink r:id="rId141" ref="E145"/>
-    <hyperlink r:id="rId142" ref="E146"/>
-    <hyperlink r:id="rId143" ref="E147"/>
-    <hyperlink r:id="rId144" ref="E148"/>
-    <hyperlink r:id="rId145" ref="E149"/>
-    <hyperlink r:id="rId146" ref="E150"/>
-    <hyperlink r:id="rId147" ref="E151"/>
-    <hyperlink r:id="rId148" ref="E152"/>
-    <hyperlink r:id="rId149" ref="E153"/>
-    <hyperlink r:id="rId150" ref="E154"/>
-    <hyperlink r:id="rId151" ref="E155"/>
-    <hyperlink r:id="rId152" ref="E156"/>
-    <hyperlink r:id="rId153" ref="E157"/>
-    <hyperlink r:id="rId154" ref="E158"/>
-    <hyperlink r:id="rId155" ref="E159"/>
-    <hyperlink r:id="rId156" ref="E160"/>
-    <hyperlink r:id="rId157" ref="E161"/>
-    <hyperlink r:id="rId158" ref="E162"/>
-    <hyperlink r:id="rId159" ref="E163"/>
-    <hyperlink r:id="rId160" ref="E164"/>
-    <hyperlink r:id="rId161" ref="E165"/>
-    <hyperlink r:id="rId162" ref="E166"/>
-    <hyperlink r:id="rId163" ref="E167"/>
-    <hyperlink r:id="rId164" ref="E168"/>
-    <hyperlink r:id="rId165" ref="E169"/>
-    <hyperlink r:id="rId166" ref="E170"/>
-    <hyperlink r:id="rId167" ref="E171"/>
-    <hyperlink r:id="rId168" ref="E172"/>
-    <hyperlink r:id="rId169" ref="E173"/>
-    <hyperlink r:id="rId170" ref="E174"/>
-    <hyperlink r:id="rId171" ref="E175"/>
-    <hyperlink r:id="rId172" ref="E176"/>
-    <hyperlink r:id="rId173" ref="E177"/>
-    <hyperlink r:id="rId174" ref="E178"/>
+    <hyperlink ref="E2" r:id="rId1" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c5a795l0i2m72bjeqbh713r3o.png"/>
+    <hyperlink ref="E3" r:id="rId2" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69869a3bl0i2m72p0sbjub568ch.png"/>
+    <hyperlink ref="E4" r:id="rId3" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69886115l0i2m7307w4njyfhwt5.png"/>
+    <hyperlink ref="E5" r:id="rId4" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697ae5eel0i2m74j1houvhsid9m.png"/>
+    <hyperlink ref="E6" r:id="rId5" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697edfb9l0i2m79bx2q2xwbbjtl.png"/>
+    <hyperlink ref="E7" r:id="rId6" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6986ad2el0i2m7q7y6gl2myxkh8.png"/>
+    <hyperlink ref="E8" r:id="rId7" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d3927cl0i2m7rak61iym4ek.png"/>
+    <hyperlink ref="E9" r:id="rId8" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699ae4a0l0i2m7xeop7sxh8y65e.png"/>
+    <hyperlink ref="E10" r:id="rId9" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6981bb8al0i2m7z49o4mk7lid3.png"/>
+    <hyperlink ref="E11" r:id="rId10" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699007d5l0i2m80jyrpycbrgzml.png"/>
+    <hyperlink ref="E12" r:id="rId11" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6961933bl0i2m880lere7qq0dqn.png"/>
+    <hyperlink ref="E13" r:id="rId12" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698e05eel0i2m8lxtk1iuo5pp3.png"/>
+    <hyperlink ref="E14" r:id="rId13" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69bc29c9l0i2m8mjnl6ac43o3sa.png"/>
+    <hyperlink ref="E15" r:id="rId14" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c40d99l0i2m8n9bf756iumzy9.png"/>
+    <hyperlink ref="E16" r:id="rId15" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699b601fl0i2m8statevuowxrrb.png"/>
+    <hyperlink ref="E17" r:id="rId16" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d83e6bl0i2m8v6af0i4h94ltb.png"/>
+    <hyperlink ref="E18" r:id="rId17" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a3ca6bl0i2m99b111ivu2aamcc.png"/>
+    <hyperlink ref="E19" r:id="rId18" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69dedf7al0i2m9b4pz1v8jipl5.png"/>
+    <hyperlink ref="E20" r:id="rId19" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69e79661l0i2m9c3uzzwon60ru.png"/>
+    <hyperlink ref="E21" r:id="rId20" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f08b12l0i2m9h4uay98lftdb.png"/>
+    <hyperlink ref="E22" r:id="rId21" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f46160l0i2m9j5wvl4iyb5vv.png"/>
+    <hyperlink ref="E23" r:id="rId22" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69755f06l0i2m9ygrrte15vxjjn.png"/>
+    <hyperlink ref="E24" r:id="rId23" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c93d09l0i2m9yixlupxvwoc7r.png"/>
+    <hyperlink ref="E25" r:id="rId24" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a317f4l0i2m9zw0s2ceqss32f.png"/>
+    <hyperlink ref="E26" r:id="rId25" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6973afc2l0i2ma51e7fflgwsv2m.png"/>
+    <hyperlink ref="E27" r:id="rId26" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69ad0772l0i2ma7gusqx8w2s1ao.png"/>
+    <hyperlink ref="E28" r:id="rId27" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69e77e65l0i2mam30d45d317ze1a.png"/>
+    <hyperlink ref="E29" r:id="rId28" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c37b1fl0i2manq5puf8m7lj6.png"/>
+    <hyperlink ref="E30" r:id="rId29" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f696f8b63l0i2maq3fi94tgr4s4t.png"/>
+    <hyperlink ref="E31" r:id="rId30" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d5a094l0i2mata8cfyj4ci55t.png"/>
+    <hyperlink ref="E32" r:id="rId31" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d6cc12l0i2maurcz3u35zq1e6.png"/>
+    <hyperlink ref="E33" r:id="rId32" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699556dcl0i2mb8hu2t8gym49k9.png"/>
+    <hyperlink ref="E34" r:id="rId33" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a08d1al0i2mbb18pbuvaqj0nv.png"/>
+    <hyperlink ref="E35" r:id="rId34" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6966a9acl0i2mbedz4xx9r4lz4h.png"/>
+    <hyperlink ref="E36" r:id="rId35" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698b669el0i2mbhazm5831nokpp.png"/>
+    <hyperlink ref="E37" r:id="rId36" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a8e6e3l0i2mbkue80sw8q9e9m.png"/>
+    <hyperlink ref="E38" r:id="rId37" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698f0b5cl0i2mbvii8p3ju2s8p.png"/>
+    <hyperlink ref="E39" r:id="rId38" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a6e7bal0i2mbxtdxxdlkbn228.png"/>
+    <hyperlink ref="E40" r:id="rId39" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69beb214l0i2mc1tu4e1udh50bg.png"/>
+    <hyperlink ref="E41" r:id="rId40" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69eb484al0i2mc6wcx3of77ezpi.png"/>
+    <hyperlink ref="E42" r:id="rId41" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699e2f56l0i2mcc0rz6jdgrnd4b.png"/>
+    <hyperlink ref="E43" r:id="rId42" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6967f4a6l0i2mcivef17883vmx4.png"/>
+    <hyperlink ref="E44" r:id="rId43" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69e439b6l0i2mcjzcnj6kp3he1.png"/>
+    <hyperlink ref="E45" r:id="rId44" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69ef93ffl0i2mcqpdy7v0jp2w4t.png"/>
+    <hyperlink ref="E46" r:id="rId45" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6981a517l0i2mcvl2m9zjgmsg8q.png"/>
+    <hyperlink ref="E47" r:id="rId46" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d80346l0i2md4i5cedghtnq25.png"/>
+    <hyperlink ref="E48" r:id="rId47" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f4ffe5l0i2md88ra4eyn71p2h.png"/>
+    <hyperlink ref="E49" r:id="rId48" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69e49901l0i2mdbbaoshgf9r6xb.png"/>
+    <hyperlink ref="E50" r:id="rId49" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f66bd4l0i2mddees047dl1w3.png"/>
+    <hyperlink ref="E51" r:id="rId50" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698df3ebl0i2mdikdnz45fhyrc7.png"/>
+    <hyperlink ref="E52" r:id="rId51" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69aac157l0i2mdq7xv2njkwl739.png"/>
+    <hyperlink ref="E53" r:id="rId52" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69eea151l0i2mdvyoq9hes3awih.png"/>
+    <hyperlink ref="E54" r:id="rId53" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69ca396cl0i2mdysgmasljm2zkm.png"/>
+    <hyperlink ref="E55" r:id="rId54" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69810cebl0i2mdzlqf85vs5362m.png"/>
+    <hyperlink ref="E56" r:id="rId55" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f1bf17l0i2me5lh0rinbjahod.png"/>
+    <hyperlink ref="E57" r:id="rId56" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f3a31bl0i2meai1xfwcvclxod.png"/>
+    <hyperlink ref="E58" r:id="rId57" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c7e27al0i2meh9ln3g7iucc9m.png"/>
+    <hyperlink ref="E59" r:id="rId58" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699441c2l0i2men3bc9smd0h3jp.png"/>
+    <hyperlink ref="E60" r:id="rId59" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f696fcc61l0i2mesvptc01pvt2k.png"/>
+    <hyperlink ref="E61" r:id="rId60" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69671b3cl0i2meu31aoc55gpu6w.png"/>
+    <hyperlink ref="E62" r:id="rId61" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69ebf5c7l0i2mf0jf9uvcbi972.png"/>
+    <hyperlink ref="E63" r:id="rId62" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69b84b61l0i2mfc7u9mll6xzntq.png"/>
+    <hyperlink ref="E64" r:id="rId63" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698ad77al0i2mfezbdn6jgn0o9.png"/>
+    <hyperlink ref="E65" r:id="rId64" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698e5adfl0i2mffrxjg7ruc39w.png"/>
+    <hyperlink ref="E66" r:id="rId65" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69cce4d4l0i2mfhyp49jkapcfro.png"/>
+    <hyperlink ref="E67" r:id="rId66" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69eb0b5al0i2mfvs8tpdxql60r.png"/>
+    <hyperlink ref="E68" r:id="rId67" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c9c269l0i2mfxzgqbh7ffwoxe.png"/>
+    <hyperlink ref="E69" r:id="rId68" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69da1bd4l0i2mg2rzb8btkku3w.png"/>
+    <hyperlink ref="E70" r:id="rId69" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d1362al0i2mg4cjo2nkqwii0c.png"/>
+    <hyperlink ref="E71" r:id="rId70" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698f564bl0i2mgkgv52gb259rpo.png"/>
+    <hyperlink ref="E73" r:id="rId71" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a9bb63l0i2mgrk6uq0c1hc2ce.png"/>
+    <hyperlink ref="E74" r:id="rId72" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69b8ac92l0i2mgtov87be1r2nqe.png"/>
+    <hyperlink ref="E75" r:id="rId73" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699dd1c8l0i2mgue4joyaqx4gkf.png"/>
+    <hyperlink ref="E76" r:id="rId74" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6999ba4dl0i2mh3xyke5xw6a3.png"/>
+    <hyperlink ref="E77" r:id="rId75" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c4fae0l0i2mh89ctxbtq3mamf.png"/>
+    <hyperlink ref="E78" r:id="rId76" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f696bd5cdl0i2mhe4ogfvk5y4fnk.png"/>
+    <hyperlink ref="E79" r:id="rId77" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a91598l0i2mhgmal00xkh3qlq.png"/>
+    <hyperlink ref="E80" r:id="rId78" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6998e8c0l0i2mhji8anu11st2mt.png"/>
+    <hyperlink ref="E81" r:id="rId79" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69755ab0l0i2mhph4nhezda1u7a.png"/>
+    <hyperlink ref="E82" r:id="rId80" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69dacb4bl0i2mhubpixrap5onq.png"/>
+    <hyperlink ref="E83" r:id="rId81" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f56f55l0i2mhypmucze7mfrzc.png"/>
+    <hyperlink ref="E84" r:id="rId82" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699944del0i2mi3slb26ih47ryg.png"/>
+    <hyperlink ref="E85" r:id="rId83" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d966bel0i2mi4tvwhnn8vetm.png"/>
+    <hyperlink ref="E86" r:id="rId84" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698099f7l0i2miaetoao4rp6xtb.png"/>
+    <hyperlink ref="E87" r:id="rId85" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c399c9l0i2mil0mh3d0ps7e7.png"/>
+    <hyperlink ref="E88" r:id="rId86" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698a28ecl0i2mipyyaypw22zid.png"/>
+    <hyperlink ref="E89" r:id="rId87" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69bb1acal0i2mitcppzloop1zos.png"/>
+    <hyperlink ref="E90" r:id="rId88" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6960e4ffl0i2mixrjbqp5ikjrdf.png"/>
+    <hyperlink ref="E91" r:id="rId89" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69cc10e6l0i2mj6tb3yh7hepkwb.png"/>
+    <hyperlink ref="E92" r:id="rId90" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69993058l0i2mjc4gismv720o76.png"/>
+    <hyperlink ref="E93" r:id="rId91" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69bb8933l0i2mjfr92f3f404f5.png"/>
+    <hyperlink ref="E94" r:id="rId92" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699ac779l0i2mjk3m8nufj4z7fe.png"/>
+    <hyperlink ref="E95" r:id="rId93" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6973267cl0i2mjmwm9vdpxj72u.png"/>
+    <hyperlink ref="E96" r:id="rId94" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c6be62l0i2mjs3roacssjuxza.png"/>
+    <hyperlink ref="E97" r:id="rId95" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69bc3adbl0i2mjzcn0qc9u6t9bk.png"/>
+    <hyperlink ref="E98" r:id="rId96" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69e1147dl0i2mk2ygww3qoin7ba.png"/>
+    <hyperlink ref="E99" r:id="rId97" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d3b50fl0i2mk6p38tb210zrrj.png"/>
+    <hyperlink ref="E100" r:id="rId98" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d66ba9l0i2mkaapoatsule3ab.png"/>
+    <hyperlink ref="E101" r:id="rId99" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f696874a9l0i2mkds3uzk8ol689w.png"/>
+    <hyperlink ref="E102" r:id="rId100" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a76b08l0i2mkixrtbvunct38.png"/>
+    <hyperlink ref="E103" r:id="rId101" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69935509l0i2mkr8vjb9f4f94v.png"/>
+    <hyperlink ref="E104" r:id="rId102" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f696635c6l0i2mkuc7ifimqdqkmw.png"/>
+    <hyperlink ref="E105" r:id="rId103" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69759442l0i2mkz2ozy780lp1ia.png"/>
+    <hyperlink ref="E106" r:id="rId104" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699bc4c7l0i2ml02kvmdi9fv2a.png"/>
+    <hyperlink ref="E107" r:id="rId105" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a15b4al0i2ml8g7pe7tcjmzqk.png"/>
+    <hyperlink ref="E108" r:id="rId106" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69922e0fl0i2mlawpo9eps0kqe.png"/>
+    <hyperlink ref="E109" r:id="rId107" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69dbb012l0i2mlliso8pvrpw4an.png"/>
+    <hyperlink ref="E110" r:id="rId108" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69b4d520l0i2mln0ngtae6zndll.png"/>
+    <hyperlink ref="E111" r:id="rId109" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a84cf2l0i2mlr7qukgvew5dt.png"/>
+    <hyperlink ref="E112" r:id="rId110" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d11b53l0i2mlurz5othyaw2yn.png"/>
+    <hyperlink ref="E113" r:id="rId111" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6981d80cl0i2mlvehfutqz69f7c.png"/>
+    <hyperlink ref="E114" r:id="rId112" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d11915l0i2mm7w192hcoirxvu.png"/>
+    <hyperlink ref="E115" r:id="rId113" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c84fbal0i2mmf3h8h45isx18a.png"/>
+    <hyperlink ref="E116" r:id="rId114" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69654a3dl0i2mmit9ec0mmxu749.png"/>
+    <hyperlink ref="E117" r:id="rId115" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69e4cd2al0i2mmjf7o5gwy7nhbg.png"/>
+    <hyperlink ref="E118" r:id="rId116" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69866cf7l0i2mmw8ziuo0llo4l8.png"/>
+    <hyperlink ref="E119" r:id="rId117" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f5508fl0i2mmwfbgtc9rn3v1n.png"/>
+    <hyperlink ref="E120" r:id="rId118" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f1cb3fl0i2mn4dwszk6ivxz2.png"/>
+    <hyperlink ref="E121" r:id="rId119" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d93dd7l0i2mn5cuabfm8gwktg.png"/>
+    <hyperlink ref="E122" r:id="rId120" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69ae9c57l0i2mn6m3td3uzlk5s5.png"/>
+    <hyperlink ref="E123" r:id="rId121" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697a0d02l0i2mnesx1dup5pg1u9.png"/>
+    <hyperlink ref="E124" r:id="rId122" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699e1038l0i2mnmh37d1nfbes3b.png"/>
+    <hyperlink ref="E125" r:id="rId123" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69625085l0i2mnshaufkjhe4gok.png"/>
+    <hyperlink ref="E126" r:id="rId124" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6993b974l0i2mnzpvp1ultcqrm.png"/>
+    <hyperlink ref="E127" r:id="rId125" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697ef5f2l0i2mo0qi9n0ri0imyd.png"/>
+    <hyperlink ref="E128" r:id="rId126" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69bbcfcal0i2mo7s8f4xhwr53ms.png"/>
+    <hyperlink ref="E129" r:id="rId127" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698e4311l0i2mo8fibxu670d50f.png"/>
+    <hyperlink ref="E130" r:id="rId128" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f696d8354l0i2mogg6n9e7genjdc.png"/>
+    <hyperlink ref="E131" r:id="rId129" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697f9642l0i2molzde5v6dex4io.png"/>
+    <hyperlink ref="E132" r:id="rId130" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a8e034l0i2moqhosmm855zzp.png"/>
+    <hyperlink ref="E134" r:id="rId131" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697666c6l0i2mozt3d41gvlk4j8.png"/>
+    <hyperlink ref="E135" r:id="rId132" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698ef5fbl0i2mp1l1tslwuty9kl.png"/>
+    <hyperlink ref="E136" r:id="rId133" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698984e2l0i2mpau822kzbjamiq.png"/>
+    <hyperlink ref="E137" r:id="rId134" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69b9d414l0i2mpdus3zy2at76rr.png"/>
+    <hyperlink ref="E138" r:id="rId135" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6981f5f9l0i2mpl63u29r5fa3te.png"/>
+    <hyperlink ref="E139" r:id="rId136" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69af90afl0i2mpmxqabln2xz5gc.png"/>
+    <hyperlink ref="E141" r:id="rId137" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d9b8fel0i2mq0i7c25oc8ud27.png"/>
+    <hyperlink ref="E142" r:id="rId138" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d1692bl0i2mq82mmh96k9rqih.png"/>
+    <hyperlink ref="E143" r:id="rId139" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69b3cf18l0i2mqdndclk0p7tmvv.png"/>
+    <hyperlink ref="E144" r:id="rId140" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a0735el0i2mqkr50k38bz166b.png"/>
+    <hyperlink ref="E145" r:id="rId141" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69b78aa3l0i2mqmnrfo05lqjj3.png"/>
+    <hyperlink ref="E146" r:id="rId142" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f41641l0i2mqtyu5zlb9bg8xc.png"/>
+    <hyperlink ref="E147" r:id="rId143" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69630438l0i2mqvzhowrb84vyy.png"/>
+    <hyperlink ref="E148" r:id="rId144" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a39644l0i2mr10gkkf9agp8m7.png"/>
+    <hyperlink ref="E149" r:id="rId145" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a7a523l0i2mr4q3lyuakdiubr.png"/>
+    <hyperlink ref="E150" r:id="rId146" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69c28019l0i2mrdirn1c1brqcqj.png"/>
+    <hyperlink ref="E151" r:id="rId147" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6967952el0i2mrhy8fpgqo0f4hr.png"/>
+    <hyperlink ref="E152" r:id="rId148" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f696c58e8l0i2mrr461qyqfe46y6.png"/>
+    <hyperlink ref="E153" r:id="rId149" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69e3f410l0i2mrtcr66ff1g9p4h.png"/>
+    <hyperlink ref="E154" r:id="rId150" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697f4526l0i2mrynoucp5w0m96s.png"/>
+    <hyperlink ref="E155" r:id="rId151" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69b97ce8l0i2ms4ikyh4h5oxhve.png"/>
+    <hyperlink ref="E156" r:id="rId152" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a52fdal0i2mscdgudt5b894m5.png"/>
+    <hyperlink ref="E157" r:id="rId153" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69bd98abl0i2msf1hgi0pk8vssd.png"/>
+    <hyperlink ref="E158" r:id="rId154" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69bc1846l0i2msgjjzgo3z9kwjh.png"/>
+    <hyperlink ref="E159" r:id="rId155" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69f6581cl0i2msjrduyrq5lzcub.png"/>
+    <hyperlink ref="E160" r:id="rId156" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f696f226dl0i2msytg87r3uaqkyd.png"/>
+    <hyperlink ref="E161" r:id="rId157" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69dd1443l0i2mt2e1wsljt8hffr.png"/>
+    <hyperlink ref="E162" r:id="rId158" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697b13fal0i2mt2gmldy864m2zj.png"/>
+    <hyperlink ref="E163" r:id="rId159" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6986804dl0i2mt48ydii28an8a.png"/>
+    <hyperlink ref="E164" r:id="rId160" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69d071acl0i2mtig4ni1eefzjg.png"/>
+    <hyperlink ref="E165" r:id="rId161" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697bdfffl0i2mtpen4salledwa.png"/>
+    <hyperlink ref="E166" r:id="rId162" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f698657ecl0i2mtswf7rb3f7u2l7.png"/>
+    <hyperlink ref="E167" r:id="rId163" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697036fbl0i2mtt1y66q5foxdq.png"/>
+    <hyperlink ref="E168" r:id="rId164" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6986c248l0i2mud577bnmdfh8w.png"/>
+    <hyperlink ref="E169" r:id="rId165" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a25d31l0i2muhzfvabyqxiv2v.png"/>
+    <hyperlink ref="E170" r:id="rId166" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f695f2681l0i2muinpxbngca38up.png"/>
+    <hyperlink ref="E171" r:id="rId167" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69efba83l0i2mv5car0cnamiotl.png"/>
+    <hyperlink ref="E172" r:id="rId168" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69b5132al0i2mvbu1p0fqlhzbjb.png"/>
+    <hyperlink ref="E173" r:id="rId169" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f697fe6e2l0i2mvhwmvjnk9ek1hb.png"/>
+    <hyperlink ref="E174" r:id="rId170" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f6994064fl0i2mvrzl0ze8veus3.png"/>
+    <hyperlink ref="E175" r:id="rId171" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69a00a08l0i2mvsxha1qmkpwnqb.png"/>
+    <hyperlink ref="E176" r:id="rId172" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69ea8ac4l0i2mw3htuchm8ubrxk.png"/>
+    <hyperlink ref="E177" r:id="rId173" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f699f31b0l0i2mw5av5ayol4jqjn.png"/>
+    <hyperlink ref="E178" r:id="rId174" location="" tooltip="" display="https://eldenring.fanapis.com/images/locations/17f69dfae57l0i2mwa08uny35m2uqf.png"/>
   </hyperlinks>
-  <drawing r:id="rId175"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>